--- a/vimMastery.xlsx
+++ b/vimMastery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blueorigins-my.sharepoint.us/personal/thoyle_blueorigin_com/Documents/cmd spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\vimMastery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{14C54E62-9728-4DC7-8A9A-DAB4372A8B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3B0EACA-026C-446F-AB3B-CB9C5EB0D6B4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81684D1D-4F83-4370-9A4F-B489383C08AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{2B2C4A5C-E235-4775-ABF4-D4C44A5B2836}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B2C4A5C-E235-4775-ABF4-D4C44A5B2836}"/>
   </bookViews>
   <sheets>
     <sheet name="quick guide" sheetId="17" r:id="rId1"/>
@@ -12559,50 +12559,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>a(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = inside parantheses + parantheses (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ll)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>)</t>
     </r>
     <r>
@@ -15497,6 +15453,50 @@
     <t xml:space="preserve">selects lines 33 - 42 of a file, then deletes the first character on each of those lines
 :33,42 = select lines 33 - 42
 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> inside parantheses + parantheses </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -16023,36 +16023,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7740A4D-A046-4B6C-ACEB-C97660BDE5F8}">
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="28"/>
-    <col min="2" max="2" width="38.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="38.08984375" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.08984375" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.90625" style="28"/>
+    <col min="1" max="1" width="8.85546875" style="28"/>
+    <col min="2" max="2" width="38.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="2:5" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
         <v>553</v>
       </c>
@@ -16062,7 +16062,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
         <v>178</v>
       </c>
@@ -16071,188 +16071,188 @@
         <v>179</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>538</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E5" s="26"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>218</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="25" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>539</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>546</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="25" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>540</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="28" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>333</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="28" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="28" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="33" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
       <c r="D14" s="28" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15" s="28" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>548</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="28" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
       <c r="D17" s="33" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D18" s="33" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D19" s="33" t="s">
         <v>547</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D23" s="9" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D24" s="33" t="s">
-        <v>554</v>
+        <v>641</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D25" s="28" t="s">
         <v>547</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D26" s="25" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="D27" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="28" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="28" t="s">
         <v>565</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="28" t="s">
-        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -16273,21 +16273,21 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="28"/>
-    <col min="2" max="2" width="32.6328125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.6328125" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="8.90625" style="28"/>
+    <col min="1" max="1" width="8.85546875" style="28"/>
+    <col min="2" max="2" width="32.5703125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
         <v>484</v>
       </c>
@@ -16296,7 +16296,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>502</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>499</v>
       </c>
@@ -16316,7 +16316,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="150" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>503</v>
       </c>
@@ -16327,7 +16327,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" ht="180" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>505</v>
       </c>
@@ -16338,7 +16338,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="101" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="101.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
         <v>508</v>
       </c>
@@ -16366,21 +16366,21 @@
       <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="28"/>
+    <col min="1" max="1" width="8.85546875" style="28"/>
     <col min="2" max="2" width="33" style="28" customWidth="1"/>
-    <col min="3" max="3" width="27.6328125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="46.6328125" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="8.90625" style="28"/>
+    <col min="3" max="3" width="27.5703125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
         <v>484</v>
       </c>
@@ -16389,7 +16389,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>485</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>487</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="86.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>489</v>
       </c>
@@ -16420,7 +16420,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="165" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
         <v>490</v>
       </c>
@@ -16431,7 +16431,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>498</v>
       </c>
@@ -16460,20 +16460,20 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.6328125" customWidth="1"/>
-    <col min="4" max="4" width="46.6328125" customWidth="1"/>
-    <col min="5" max="5" width="43.6328125" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="73.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="73.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -16482,7 +16482,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
         <v>444</v>
       </c>
@@ -16492,7 +16492,7 @@
       </c>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="2:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>445</v>
       </c>
@@ -16506,7 +16506,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>448</v>
       </c>
@@ -16518,7 +16518,7 @@
       </c>
       <c r="E5" s="35"/>
     </row>
-    <row r="6" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>451</v>
       </c>
@@ -16530,7 +16530,7 @@
       </c>
       <c r="E6" s="35"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>454</v>
       </c>
@@ -16542,7 +16542,7 @@
       </c>
       <c r="E7" s="35"/>
     </row>
-    <row r="8" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>457</v>
       </c>
@@ -16554,7 +16554,7 @@
       </c>
       <c r="E8" s="35"/>
     </row>
-    <row r="9" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>460</v>
       </c>
@@ -16566,7 +16566,7 @@
       </c>
       <c r="E9" s="35"/>
     </row>
-    <row r="10" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="31" t="s">
         <v>463</v>
       </c>
@@ -16578,7 +16578,7 @@
       </c>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>466</v>
       </c>
@@ -16590,7 +16590,7 @@
       </c>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>469</v>
       </c>
@@ -16602,7 +16602,7 @@
       </c>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>472</v>
       </c>
@@ -16633,19 +16633,19 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.6328125" customWidth="1"/>
-    <col min="4" max="4" width="46.6328125" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="73.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="73.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -16654,14 +16654,14 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>38</v>
       </c>
@@ -16670,12 +16670,12 @@
       </c>
       <c r="D4" s="35"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="36" t="s">
         <v>355</v>
       </c>
@@ -16684,7 +16684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" ht="210" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>477</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="135" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
         <v>482</v>
       </c>
@@ -16725,19 +16725,19 @@
       <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.6328125" customWidth="1"/>
-    <col min="4" max="4" width="46.6328125" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="73.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="73.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -16746,7 +16746,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>410</v>
       </c>
@@ -16755,7 +16755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>411</v>
       </c>
@@ -16766,7 +16766,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>414</v>
       </c>
@@ -16777,7 +16777,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>417</v>
       </c>
@@ -16788,7 +16788,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>420</v>
       </c>
@@ -16799,7 +16799,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>423</v>
       </c>
@@ -16827,19 +16827,19 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.6328125" customWidth="1"/>
-    <col min="4" max="4" width="46.6328125" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -16848,12 +16848,12 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>385</v>
       </c>
@@ -16862,7 +16862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>386</v>
       </c>
@@ -16873,7 +16873,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>389</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>392</v>
       </c>
@@ -16895,7 +16895,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>395</v>
       </c>
@@ -16906,7 +16906,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>398</v>
       </c>
@@ -16917,7 +16917,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
         <v>401</v>
       </c>
@@ -16928,18 +16928,18 @@
         <v>403</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>629</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>630</v>
-      </c>
       <c r="D11" s="15" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C15" s="31"/>
     </row>
   </sheetData>
@@ -16959,19 +16959,19 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.6328125" customWidth="1"/>
-    <col min="4" max="4" width="46.6328125" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" s="11" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" s="11" customFormat="1" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -16980,7 +16980,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>29</v>
       </c>
@@ -16989,7 +16989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
@@ -17000,7 +17000,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>325</v>
       </c>
@@ -17011,7 +17011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>318</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>323</v>
       </c>
@@ -17027,7 +17027,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>349</v>
       </c>
@@ -17056,18 +17056,18 @@
       <selection activeCell="U49" sqref="U49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.08984375" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="41" t="s">
         <v>38</v>
       </c>
@@ -17081,7 +17081,7 @@
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
       <c r="D4" s="35"/>
@@ -17091,7 +17091,7 @@
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
       <c r="D5" s="35"/>
@@ -17101,7 +17101,7 @@
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="35"/>
@@ -17111,20 +17111,20 @@
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="9" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="42" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
     </row>
-    <row r="11" spans="2:11" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="35" t="s">
         <v>1</v>
       </c>
@@ -17138,7 +17138,7 @@
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
     </row>
-    <row r="12" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="35" t="s">
         <v>2</v>
       </c>
@@ -17152,7 +17152,7 @@
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
     </row>
-    <row r="13" spans="2:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="35" t="s">
         <v>3</v>
       </c>
@@ -17166,7 +17166,7 @@
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="41" t="s">
         <v>4</v>
       </c>
@@ -17180,7 +17180,7 @@
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
     </row>
-    <row r="15" spans="2:11" ht="116.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
         <v>5</v>
       </c>
@@ -17194,13 +17194,13 @@
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
     </row>
-    <row r="16" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="35" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="35" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
@@ -17210,13 +17210,13 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="42" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="42"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
@@ -17224,7 +17224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
@@ -17232,7 +17232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
@@ -17240,7 +17240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
@@ -17248,7 +17248,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
@@ -17264,7 +17264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
@@ -17273,7 +17273,7 @@
       </c>
       <c r="E24" s="41"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
@@ -17281,7 +17281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
@@ -17289,7 +17289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" s="4" t="s">
         <v>20</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
@@ -17305,248 +17305,236 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>512</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>513</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
         <v>514</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
         <v>515</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="41"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="s">
         <v>516</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
         <v>517</v>
       </c>
       <c r="B36" s="41"/>
       <c r="C36" s="41"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
         <v>518</v>
       </c>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
         <v>519</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
         <v>520</v>
       </c>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
         <v>521</v>
       </c>
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>522</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>523</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>524</v>
       </c>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>525</v>
       </c>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>526</v>
       </c>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
         <v>527</v>
       </c>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>528</v>
       </c>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
         <v>529</v>
       </c>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>530</v>
       </c>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>531</v>
       </c>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>532</v>
       </c>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
         <v>533</v>
       </c>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>534</v>
       </c>
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>535</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>536</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>537</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="D3:I6"/>
     <mergeCell ref="B3:C6"/>
     <mergeCell ref="B9:D9"/>
@@ -17559,6 +17547,18 @@
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:G16"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17573,21 +17573,21 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="28"/>
-    <col min="2" max="2" width="31.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.6328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.6328125" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="9.08984375" style="28"/>
+    <col min="1" max="1" width="9.140625" style="28"/>
+    <col min="2" max="2" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
@@ -17596,20 +17596,20 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="34" t="s">
         <v>634</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -17628,19 +17628,19 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.6328125" customWidth="1"/>
-    <col min="4" max="4" width="46.6328125" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -17649,7 +17649,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>40</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>41</v>
       </c>
@@ -17669,7 +17669,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>44</v>
       </c>
@@ -17680,7 +17680,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>47</v>
       </c>
@@ -17691,7 +17691,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>50</v>
       </c>
@@ -17702,7 +17702,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>53</v>
       </c>
@@ -17713,7 +17713,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>56</v>
       </c>
@@ -17724,7 +17724,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>59</v>
       </c>
@@ -17735,7 +17735,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>62</v>
       </c>
@@ -17746,7 +17746,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>65</v>
       </c>
@@ -17757,7 +17757,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>68</v>
       </c>
@@ -17768,7 +17768,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>71</v>
       </c>
@@ -17779,7 +17779,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>74</v>
       </c>
@@ -17790,7 +17790,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>77</v>
       </c>
@@ -17818,20 +17818,20 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.6328125" customWidth="1"/>
-    <col min="4" max="4" width="46.6328125" customWidth="1"/>
-    <col min="5" max="5" width="48.90625" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -17840,7 +17840,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>97</v>
       </c>
@@ -17850,7 +17850,7 @@
       </c>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>98</v>
       </c>
@@ -17864,7 +17864,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>102</v>
       </c>
@@ -17876,7 +17876,7 @@
       </c>
       <c r="E6" s="37"/>
     </row>
-    <row r="7" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>105</v>
       </c>
@@ -17906,20 +17906,20 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.6328125" customWidth="1"/>
-    <col min="4" max="4" width="46.6328125" customWidth="1"/>
-    <col min="5" max="5" width="39.6328125" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -17928,7 +17928,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>108</v>
       </c>
@@ -17938,7 +17938,7 @@
       </c>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>245</v>
       </c>
@@ -17947,7 +17947,7 @@
       <c r="D5" s="19"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="39"/>
       <c r="B6" s="22" t="s">
         <v>130</v>
@@ -17960,7 +17960,7 @@
       </c>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="39"/>
       <c r="B7" s="22" t="s">
         <v>133</v>
@@ -17973,7 +17973,7 @@
       </c>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="39"/>
       <c r="B8" s="22" t="s">
         <v>136</v>
@@ -17986,7 +17986,7 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
       <c r="B9" s="22" t="s">
         <v>139</v>
@@ -17999,18 +17999,18 @@
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="10"/>
       <c r="D11" s="7"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>176</v>
       </c>
@@ -18027,7 +18027,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="22" t="s">
         <v>144</v>
@@ -18040,7 +18040,7 @@
       </c>
       <c r="E13" s="40"/>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="22" t="s">
         <v>147</v>
@@ -18053,7 +18053,7 @@
       </c>
       <c r="E14" s="40"/>
     </row>
-    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="22" t="s">
         <v>150</v>
@@ -18066,7 +18066,7 @@
       </c>
       <c r="E15" s="40"/>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="22" t="s">
         <v>153</v>
@@ -18079,7 +18079,7 @@
       </c>
       <c r="E16" s="20"/>
     </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="22" t="s">
         <v>156</v>
@@ -18088,11 +18088,11 @@
         <v>157</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E17" s="20"/>
     </row>
-    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="22" t="s">
         <v>192</v>
@@ -18105,7 +18105,7 @@
       </c>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="22" t="s">
         <v>193</v>
@@ -18118,27 +18118,27 @@
       </c>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>597</v>
-      </c>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="10"/>
       <c r="D21" s="8"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
         <v>175</v>
       </c>
@@ -18153,7 +18153,7 @@
       </c>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
       <c r="B23" s="22" t="s">
         <v>261</v>
@@ -18166,7 +18166,7 @@
       </c>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
       <c r="B24" s="22" t="s">
         <v>161</v>
@@ -18179,7 +18179,7 @@
       </c>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25" s="16" t="s">
         <v>164</v>
@@ -18192,7 +18192,7 @@
       </c>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
       <c r="B26" s="16" t="s">
         <v>266</v>
@@ -18205,7 +18205,7 @@
       </c>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
       <c r="B27" s="16" t="s">
         <v>260</v>
@@ -18218,14 +18218,14 @@
       </c>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="10"/>
       <c r="D28" s="8"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="38" t="s">
         <v>258</v>
       </c>
@@ -18240,7 +18240,7 @@
       </c>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="22" t="s">
         <v>253</v>
@@ -18253,14 +18253,14 @@
       </c>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="10"/>
       <c r="D31" s="8"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
         <v>259</v>
       </c>
@@ -18275,7 +18275,7 @@
       </c>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="22" t="s">
         <v>123</v>
@@ -18288,10 +18288,10 @@
       </c>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="38" t="s">
         <v>174</v>
       </c>
@@ -18306,7 +18306,7 @@
       </c>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
       <c r="B36" s="22" t="s">
         <v>112</v>
@@ -18319,7 +18319,7 @@
       </c>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
       <c r="B37" s="22" t="s">
         <v>115</v>
@@ -18331,7 +18331,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="9" t="s">
         <v>118</v>
@@ -18343,7 +18343,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
       <c r="B39" s="22" t="s">
         <v>125</v>
@@ -18355,7 +18355,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="38"/>
       <c r="B40" s="22" t="s">
         <v>128</v>
@@ -18367,7 +18367,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
       <c r="B41" s="22" t="s">
         <v>273</v>
@@ -18379,7 +18379,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
       <c r="B42" s="16" t="s">
         <v>171</v>
@@ -18391,7 +18391,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="16" t="s">
         <v>316</v>
@@ -18403,7 +18403,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="15" t="s">
         <v>344</v>
@@ -18415,7 +18415,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="15" t="s">
         <v>345</v>
@@ -18427,28 +18427,28 @@
         <v>347</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="9"/>
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="16" t="s">
         <v>265</v>
       </c>
@@ -18478,20 +18478,20 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.6328125" customWidth="1"/>
-    <col min="4" max="4" width="46.6328125" customWidth="1"/>
-    <col min="5" max="5" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -18500,7 +18500,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>180</v>
       </c>
@@ -18509,7 +18509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>320</v>
       </c>
@@ -18520,7 +18520,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>182</v>
       </c>
@@ -18531,7 +18531,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
         <v>184</v>
       </c>
@@ -18542,7 +18542,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>322</v>
       </c>
@@ -18550,21 +18550,21 @@
         <v>186</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>187</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
         <v>188</v>
       </c>
@@ -18572,57 +18572,57 @@
         <v>189</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
         <v>605</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="B12" s="22" t="s">
-        <v>606</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="D12" s="8" t="s">
+    <row r="13" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="B13" s="22" t="s">
+      <c r="C13" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:5" s="31" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" s="31" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>361</v>
       </c>
@@ -18630,11 +18630,11 @@
         <v>364</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E16" s="33"/>
     </row>
-    <row r="17" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="29" t="s">
         <v>363</v>
       </c>
@@ -18642,10 +18642,10 @@
         <v>362</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>366</v>
       </c>
@@ -18653,26 +18653,26 @@
         <v>365</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="105" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>637</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -18690,23 +18690,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C5EEE4-9C59-4B4E-BDC3-2865A323AE75}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.6328125" customWidth="1"/>
-    <col min="4" max="4" width="46.6328125" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -18715,7 +18715,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>199</v>
       </c>
@@ -18724,7 +18724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>245</v>
       </c>
@@ -18738,7 +18738,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="38"/>
       <c r="B6" s="13" t="s">
         <v>203</v>
@@ -18750,7 +18750,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
       <c r="B7" s="25" t="s">
         <v>206</v>
@@ -18762,7 +18762,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="16" t="s">
         <v>209</v>
@@ -18774,19 +18774,19 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>639</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:4" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="10" t="s">
         <v>212</v>
@@ -18798,7 +18798,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>176</v>
       </c>
@@ -18812,7 +18812,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="10" t="s">
         <v>236</v>
@@ -18824,7 +18824,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="B13" s="10" t="s">
         <v>243</v>
@@ -18836,7 +18836,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="25" t="s">
         <v>239</v>
@@ -18848,13 +18848,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="3" t="s">
         <v>218</v>
@@ -18866,7 +18866,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>175</v>
       </c>
@@ -18880,7 +18880,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="13" t="s">
         <v>224</v>
@@ -18892,7 +18892,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="25" t="s">
         <v>227</v>
@@ -18904,7 +18904,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="22" t="s">
         <v>544</v>
@@ -18916,13 +18916,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="25"/>
       <c r="C21" s="6"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="s">
         <v>230</v>
       </c>
@@ -18933,7 +18933,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>246</v>
       </c>
@@ -18947,7 +18947,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
     </row>
   </sheetData>
@@ -18972,19 +18972,19 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.6328125" customWidth="1"/>
-    <col min="4" max="4" width="46.6328125" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -18993,7 +18993,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>279</v>
       </c>
@@ -19002,7 +19002,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>377</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>378</v>
       </c>
@@ -19024,7 +19024,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>282</v>
       </c>
@@ -19035,7 +19035,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>285</v>
       </c>
@@ -19046,7 +19046,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>288</v>
       </c>
@@ -19057,7 +19057,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>291</v>
       </c>
@@ -19068,7 +19068,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>294</v>
       </c>
@@ -19079,7 +19079,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>297</v>
       </c>
@@ -19090,7 +19090,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>300</v>
       </c>
@@ -19101,7 +19101,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>303</v>
       </c>
@@ -19112,7 +19112,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>305</v>
       </c>
@@ -19123,7 +19123,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>308</v>
       </c>
@@ -19134,7 +19134,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>382</v>
       </c>
@@ -19145,7 +19145,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" ht="105" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
         <v>406</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" ht="165" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
         <v>407</v>
       </c>
@@ -19167,7 +19167,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>381</v>
       </c>
@@ -19178,15 +19178,15 @@
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" ht="150" x14ac:dyDescent="0.25">
       <c r="B21" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="8" t="s">
         <v>618</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -19207,19 +19207,19 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.6328125" customWidth="1"/>
-    <col min="4" max="4" width="46.6328125" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -19228,7 +19228,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>86</v>
       </c>
@@ -19237,7 +19237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>247</v>
       </c>
@@ -19245,10 +19245,10 @@
         <v>249</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>248</v>
       </c>
@@ -19256,54 +19256,54 @@
         <v>250</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
         <v>581</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="C8" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
         <v>585</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B9" s="15" t="s">
-        <v>586</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>251</v>
       </c>
       <c r="D9" s="14" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="87" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>312</v>
       </c>
@@ -19314,7 +19314,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>313</v>
       </c>
@@ -19325,29 +19325,29 @@
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>88</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>269</v>
       </c>
@@ -19358,7 +19358,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>270</v>
       </c>
@@ -19369,7 +19369,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>427</v>
       </c>
@@ -19380,7 +19380,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>429</v>
       </c>
@@ -19391,7 +19391,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>432</v>
       </c>
@@ -19402,7 +19402,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>434</v>
       </c>
@@ -19413,7 +19413,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
         <v>439</v>
       </c>
@@ -19424,7 +19424,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" ht="105" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>441</v>
       </c>
@@ -19435,7 +19435,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>275</v>
       </c>
@@ -19446,7 +19446,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>277</v>
       </c>
@@ -19457,7 +19457,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" ht="105" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>91</v>
       </c>
@@ -19468,7 +19468,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>80</v>
       </c>
@@ -19479,7 +19479,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>83</v>
       </c>
@@ -19490,7 +19490,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
         <v>96</v>
       </c>
@@ -19519,19 +19519,19 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.6328125" customWidth="1"/>
-    <col min="4" max="4" width="46.6328125" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -19540,7 +19540,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>326</v>
       </c>
@@ -19549,7 +19549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>327</v>
       </c>
@@ -19560,7 +19560,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="105" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>330</v>
       </c>
@@ -19571,7 +19571,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>333</v>
       </c>
@@ -19582,7 +19582,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>336</v>
       </c>
@@ -19593,7 +19593,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>352</v>
       </c>
@@ -19604,7 +19604,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>351</v>
       </c>
@@ -19615,7 +19615,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
         <v>356</v>
       </c>
@@ -19626,7 +19626,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>340</v>
       </c>
@@ -19635,12 +19635,12 @@
         <v>341</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="36" t="s">
         <v>367</v>
       </c>
@@ -19649,7 +19649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>368</v>
       </c>
@@ -19660,7 +19660,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>371</v>
       </c>
@@ -19671,7 +19671,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>374</v>
       </c>

--- a/vimMastery.xlsx
+++ b/vimMastery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\vimMastery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoyle\github\vimMastery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81684D1D-4F83-4370-9A4F-B489383C08AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D5A2B8-B4B3-43EF-A8AE-A0C1F9DA064C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B2C4A5C-E235-4775-ABF4-D4C44A5B2836}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{2B2C4A5C-E235-4775-ABF4-D4C44A5B2836}"/>
   </bookViews>
   <sheets>
     <sheet name="quick guide" sheetId="17" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="643">
   <si>
     <t>VIM GENERAL NOTES</t>
   </si>
@@ -15496,6 +15496,21 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> inside parantheses + parantheses </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">~ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= change case of letter</t>
     </r>
   </si>
 </sst>
@@ -16023,27 +16038,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7740A4D-A046-4B6C-ACEB-C97660BDE5F8}">
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="28"/>
-    <col min="2" max="2" width="38.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="28"/>
+    <col min="1" max="1" width="8.81640625" style="28"/>
+    <col min="2" max="2" width="38.453125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="38.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.81640625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="2:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="28" t="s">
         <v>562</v>
       </c>
@@ -16052,7 +16067,7 @@
       </c>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="2:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="36" t="s">
         <v>553</v>
       </c>
@@ -16062,7 +16077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B4" s="32" t="s">
         <v>178</v>
       </c>
@@ -16074,7 +16089,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>538</v>
       </c>
@@ -16084,7 +16099,7 @@
       </c>
       <c r="E5" s="26"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>218</v>
       </c>
@@ -16094,7 +16109,7 @@
       </c>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>539</v>
       </c>
@@ -16106,7 +16121,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>546</v>
       </c>
@@ -16118,7 +16133,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>540</v>
       </c>
@@ -16127,7 +16142,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>333</v>
       </c>
@@ -16137,7 +16152,7 @@
       </c>
       <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
         <v>625</v>
       </c>
@@ -16146,7 +16161,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="20" t="s">
         <v>626</v>
       </c>
@@ -16155,7 +16170,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>571</v>
       </c>
@@ -16167,7 +16182,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
       <c r="D14" s="28" t="s">
@@ -16177,13 +16192,13 @@
         <v>557</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C15" s="9"/>
       <c r="D15" s="28" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>548</v>
       </c>
@@ -16192,18 +16207,18 @@
         <v>555</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C17" s="3"/>
       <c r="D17" s="33" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D18" s="33" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="D19" s="33" t="s">
         <v>547</v>
       </c>
@@ -16211,15 +16226,15 @@
         <v>563</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C20" s="3"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D23" s="9" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="D24" s="33" t="s">
         <v>641</v>
       </c>
@@ -16227,7 +16242,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="D25" s="28" t="s">
         <v>547</v>
       </c>
@@ -16235,22 +16250,22 @@
         <v>559</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="D26" s="25" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="D27" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="28" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="28" t="s">
         <v>565</v>
       </c>
@@ -16273,21 +16288,21 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="28"/>
-    <col min="2" max="2" width="32.5703125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="28"/>
+    <col min="1" max="1" width="8.81640625" style="28"/>
+    <col min="2" max="2" width="32.54296875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="43.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="28" t="s">
         <v>484</v>
       </c>
@@ -16296,7 +16311,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="36" t="s">
         <v>502</v>
       </c>
@@ -16305,7 +16320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>499</v>
       </c>
@@ -16316,7 +16331,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B6" s="16" t="s">
         <v>503</v>
       </c>
@@ -16327,7 +16342,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B7" s="16" t="s">
         <v>505</v>
       </c>
@@ -16338,7 +16353,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="101.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="101.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
         <v>508</v>
       </c>
@@ -16366,21 +16381,21 @@
       <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="28"/>
+    <col min="1" max="1" width="8.81640625" style="28"/>
     <col min="2" max="2" width="33" style="28" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="28"/>
+    <col min="3" max="3" width="27.54296875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="43.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="28" t="s">
         <v>484</v>
       </c>
@@ -16389,7 +16404,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="36" t="s">
         <v>485</v>
       </c>
@@ -16398,7 +16413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="87" x14ac:dyDescent="0.35">
       <c r="B6" s="22" t="s">
         <v>487</v>
       </c>
@@ -16409,7 +16424,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>489</v>
       </c>
@@ -16420,7 +16435,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="145" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
         <v>490</v>
       </c>
@@ -16431,7 +16446,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="87" x14ac:dyDescent="0.35">
       <c r="B9" s="22" t="s">
         <v>498</v>
       </c>
@@ -16460,20 +16475,20 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
-    <col min="5" max="5" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
+    <col min="5" max="5" width="43.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="73.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="73.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -16482,7 +16497,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="36" t="s">
         <v>444</v>
       </c>
@@ -16492,7 +16507,7 @@
       </c>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15" t="s">
         <v>445</v>
       </c>
@@ -16506,7 +16521,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B5" s="22" t="s">
         <v>448</v>
       </c>
@@ -16518,7 +16533,7 @@
       </c>
       <c r="E5" s="35"/>
     </row>
-    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="13" t="s">
         <v>451</v>
       </c>
@@ -16530,7 +16545,7 @@
       </c>
       <c r="E6" s="35"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>454</v>
       </c>
@@ -16542,7 +16557,7 @@
       </c>
       <c r="E7" s="35"/>
     </row>
-    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
         <v>457</v>
       </c>
@@ -16554,7 +16569,7 @@
       </c>
       <c r="E8" s="35"/>
     </row>
-    <row r="9" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
         <v>460</v>
       </c>
@@ -16566,7 +16581,7 @@
       </c>
       <c r="E9" s="35"/>
     </row>
-    <row r="10" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="31" t="s">
         <v>463</v>
       </c>
@@ -16578,7 +16593,7 @@
       </c>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B11" s="16" t="s">
         <v>466</v>
       </c>
@@ -16590,7 +16605,7 @@
       </c>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B12" s="16" t="s">
         <v>469</v>
       </c>
@@ -16602,7 +16617,7 @@
       </c>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
         <v>472</v>
       </c>
@@ -16633,19 +16648,19 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="73.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="73.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -16654,14 +16669,14 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="2:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>38</v>
       </c>
@@ -16670,12 +16685,12 @@
       </c>
       <c r="D4" s="35"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="11"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="36" t="s">
         <v>355</v>
       </c>
@@ -16684,7 +16699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="203" x14ac:dyDescent="0.35">
       <c r="B7" s="16" t="s">
         <v>477</v>
       </c>
@@ -16695,7 +16710,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B8" s="22" t="s">
         <v>482</v>
       </c>
@@ -16725,19 +16740,19 @@
       <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="73.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="73.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -16746,7 +16761,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="36" t="s">
         <v>410</v>
       </c>
@@ -16755,7 +16770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B5" s="13" t="s">
         <v>411</v>
       </c>
@@ -16766,7 +16781,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
         <v>414</v>
       </c>
@@ -16777,7 +16792,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
         <v>417</v>
       </c>
@@ -16788,7 +16803,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
         <v>420</v>
       </c>
@@ -16799,7 +16814,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>423</v>
       </c>
@@ -16827,19 +16842,19 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -16848,12 +16863,12 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="2:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="36" t="s">
         <v>385</v>
       </c>
@@ -16862,7 +16877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>386</v>
       </c>
@@ -16873,7 +16888,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
         <v>389</v>
       </c>
@@ -16884,7 +16899,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B7" s="16" t="s">
         <v>392</v>
       </c>
@@ -16895,7 +16910,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B8" s="16" t="s">
         <v>395</v>
       </c>
@@ -16906,7 +16921,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="16" t="s">
         <v>398</v>
       </c>
@@ -16917,7 +16932,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="25" t="s">
         <v>401</v>
       </c>
@@ -16928,7 +16943,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="16" t="s">
         <v>628</v>
       </c>
@@ -16939,7 +16954,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C15" s="31"/>
     </row>
   </sheetData>
@@ -16959,19 +16974,19 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" s="11" customFormat="1" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" s="11" customFormat="1" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -16980,7 +16995,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="36" t="s">
         <v>29</v>
       </c>
@@ -16989,7 +17004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
@@ -17000,7 +17015,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>325</v>
       </c>
@@ -17011,7 +17026,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>318</v>
       </c>
@@ -17019,7 +17034,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>323</v>
       </c>
@@ -17027,7 +17042,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>349</v>
       </c>
@@ -17056,18 +17071,18 @@
       <selection activeCell="U49" sqref="U49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="41" t="s">
         <v>38</v>
       </c>
@@ -17081,7 +17096,7 @@
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
       <c r="D4" s="35"/>
@@ -17091,7 +17106,7 @@
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
       <c r="D5" s="35"/>
@@ -17101,7 +17116,7 @@
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="35"/>
@@ -17111,20 +17126,20 @@
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="9" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="42" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
     </row>
-    <row r="11" spans="2:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="35" t="s">
         <v>1</v>
       </c>
@@ -17138,7 +17153,7 @@
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
     </row>
-    <row r="12" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="35" t="s">
         <v>2</v>
       </c>
@@ -17152,7 +17167,7 @@
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
     </row>
-    <row r="13" spans="2:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="35" t="s">
         <v>3</v>
       </c>
@@ -17166,7 +17181,7 @@
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="41" t="s">
         <v>4</v>
       </c>
@@ -17180,7 +17195,7 @@
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
     </row>
-    <row r="15" spans="2:11" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="116.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="35" t="s">
         <v>5</v>
       </c>
@@ -17194,7 +17209,7 @@
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
     </row>
-    <row r="16" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="35" t="s">
         <v>622</v>
       </c>
@@ -17210,13 +17225,13 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17" s="42" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="42"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
@@ -17224,7 +17239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
@@ -17232,7 +17247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
@@ -17240,7 +17255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
@@ -17248,7 +17263,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
@@ -17256,7 +17271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
@@ -17264,7 +17279,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
@@ -17273,7 +17288,7 @@
       </c>
       <c r="E24" s="41"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
@@ -17281,7 +17296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
@@ -17289,7 +17304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C27" s="4" t="s">
         <v>20</v>
       </c>
@@ -17297,7 +17312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
@@ -17305,236 +17320,248 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="41" t="s">
         <v>512</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="41" t="s">
         <v>513</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="41" t="s">
         <v>514</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="41" t="s">
         <v>515</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="41"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="41" t="s">
         <v>516</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="41" t="s">
         <v>517</v>
       </c>
       <c r="B36" s="41"/>
       <c r="C36" s="41"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="41" t="s">
         <v>518</v>
       </c>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="41" t="s">
         <v>519</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="35" t="s">
         <v>520</v>
       </c>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="35" t="s">
         <v>521</v>
       </c>
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="41" t="s">
         <v>522</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="41" t="s">
         <v>523</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="28" t="s">
         <v>524</v>
       </c>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="28" t="s">
         <v>525</v>
       </c>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="28" t="s">
         <v>526</v>
       </c>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="28" t="s">
         <v>527</v>
       </c>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="28" t="s">
         <v>528</v>
       </c>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="28" t="s">
         <v>529</v>
       </c>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="28" t="s">
         <v>530</v>
       </c>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="28" t="s">
         <v>531</v>
       </c>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="28" t="s">
         <v>532</v>
       </c>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="28" t="s">
         <v>533</v>
       </c>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="28" t="s">
         <v>534</v>
       </c>
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>535</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>536</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>572</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>597</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>537</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>566</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>624</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="D3:I6"/>
     <mergeCell ref="B3:C6"/>
     <mergeCell ref="B9:D9"/>
@@ -17547,18 +17574,6 @@
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:G16"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17573,21 +17588,21 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="28"/>
-    <col min="2" max="2" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="1" width="9.1796875" style="28"/>
+    <col min="2" max="2" width="31.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
@@ -17596,7 +17611,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>632</v>
       </c>
@@ -17604,7 +17619,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>633</v>
       </c>
@@ -17628,19 +17643,19 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -17649,7 +17664,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="36" t="s">
         <v>40</v>
       </c>
@@ -17658,7 +17673,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
         <v>41</v>
       </c>
@@ -17669,7 +17684,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="13" t="s">
         <v>44</v>
       </c>
@@ -17680,7 +17695,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
         <v>47</v>
       </c>
@@ -17691,7 +17706,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
         <v>50</v>
       </c>
@@ -17702,7 +17717,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B9" s="15" t="s">
         <v>53</v>
       </c>
@@ -17713,7 +17728,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="s">
         <v>56</v>
       </c>
@@ -17724,7 +17739,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="s">
         <v>59</v>
       </c>
@@ -17735,7 +17750,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="16" t="s">
         <v>62</v>
       </c>
@@ -17746,7 +17761,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
         <v>65</v>
       </c>
@@ -17757,7 +17772,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">
         <v>68</v>
       </c>
@@ -17768,7 +17783,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
         <v>71</v>
       </c>
@@ -17779,7 +17794,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B16" s="13" t="s">
         <v>74</v>
       </c>
@@ -17790,7 +17805,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
         <v>77</v>
       </c>
@@ -17818,20 +17833,20 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
+    <col min="5" max="5" width="48.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -17840,7 +17855,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="36" t="s">
         <v>97</v>
       </c>
@@ -17850,7 +17865,7 @@
       </c>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
         <v>98</v>
       </c>
@@ -17864,7 +17879,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="13" t="s">
         <v>102</v>
       </c>
@@ -17876,7 +17891,7 @@
       </c>
       <c r="E6" s="37"/>
     </row>
-    <row r="7" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="16" t="s">
         <v>105</v>
       </c>
@@ -17906,20 +17921,20 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
+    <col min="5" max="5" width="39.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -17928,7 +17943,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="36" t="s">
         <v>108</v>
       </c>
@@ -17938,7 +17953,7 @@
       </c>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
         <v>245</v>
       </c>
@@ -17947,7 +17962,7 @@
       <c r="D5" s="19"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="39"/>
       <c r="B6" s="22" t="s">
         <v>130</v>
@@ -17960,7 +17975,7 @@
       </c>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="39"/>
       <c r="B7" s="22" t="s">
         <v>133</v>
@@ -17973,7 +17988,7 @@
       </c>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="39"/>
       <c r="B8" s="22" t="s">
         <v>136</v>
@@ -17986,7 +18001,7 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="39"/>
       <c r="B9" s="22" t="s">
         <v>139</v>
@@ -17999,18 +18014,18 @@
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="39"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="10"/>
       <c r="D11" s="7"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
         <v>176</v>
       </c>
@@ -18027,7 +18042,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="38"/>
       <c r="B13" s="22" t="s">
         <v>144</v>
@@ -18040,7 +18055,7 @@
       </c>
       <c r="E13" s="40"/>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="38"/>
       <c r="B14" s="22" t="s">
         <v>147</v>
@@ -18053,7 +18068,7 @@
       </c>
       <c r="E14" s="40"/>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="38"/>
       <c r="B15" s="22" t="s">
         <v>150</v>
@@ -18066,7 +18081,7 @@
       </c>
       <c r="E15" s="40"/>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="38"/>
       <c r="B16" s="22" t="s">
         <v>153</v>
@@ -18079,7 +18094,7 @@
       </c>
       <c r="E16" s="20"/>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="38"/>
       <c r="B17" s="22" t="s">
         <v>156</v>
@@ -18092,7 +18107,7 @@
       </c>
       <c r="E17" s="20"/>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="38"/>
       <c r="B18" s="22" t="s">
         <v>192</v>
@@ -18105,7 +18120,7 @@
       </c>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="38"/>
       <c r="B19" s="22" t="s">
         <v>193</v>
@@ -18118,7 +18133,7 @@
       </c>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="38"/>
       <c r="B20" s="22" t="s">
         <v>594</v>
@@ -18131,14 +18146,14 @@
       </c>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="10"/>
       <c r="D21" s="8"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="39" t="s">
         <v>175</v>
       </c>
@@ -18153,7 +18168,7 @@
       </c>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="39"/>
       <c r="B23" s="22" t="s">
         <v>261</v>
@@ -18166,7 +18181,7 @@
       </c>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="39"/>
       <c r="B24" s="22" t="s">
         <v>161</v>
@@ -18179,7 +18194,7 @@
       </c>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="39"/>
       <c r="B25" s="16" t="s">
         <v>164</v>
@@ -18192,7 +18207,7 @@
       </c>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="39"/>
       <c r="B26" s="16" t="s">
         <v>266</v>
@@ -18205,7 +18220,7 @@
       </c>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="39"/>
       <c r="B27" s="16" t="s">
         <v>260</v>
@@ -18218,14 +18233,14 @@
       </c>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="10"/>
       <c r="D28" s="8"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="38" t="s">
         <v>258</v>
       </c>
@@ -18240,7 +18255,7 @@
       </c>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="38"/>
       <c r="B30" s="22" t="s">
         <v>253</v>
@@ -18253,14 +18268,14 @@
       </c>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="10"/>
       <c r="D31" s="8"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="39" t="s">
         <v>259</v>
       </c>
@@ -18275,7 +18290,7 @@
       </c>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="39"/>
       <c r="B33" s="22" t="s">
         <v>123</v>
@@ -18288,10 +18303,10 @@
       </c>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="38" t="s">
         <v>174</v>
       </c>
@@ -18306,7 +18321,7 @@
       </c>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="38"/>
       <c r="B36" s="22" t="s">
         <v>112</v>
@@ -18319,7 +18334,7 @@
       </c>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="38"/>
       <c r="B37" s="22" t="s">
         <v>115</v>
@@ -18331,7 +18346,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="38"/>
       <c r="B38" s="9" t="s">
         <v>118</v>
@@ -18343,7 +18358,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="38"/>
       <c r="B39" s="22" t="s">
         <v>125</v>
@@ -18355,7 +18370,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="38"/>
       <c r="B40" s="22" t="s">
         <v>128</v>
@@ -18367,7 +18382,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="38"/>
       <c r="B41" s="22" t="s">
         <v>273</v>
@@ -18379,7 +18394,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="38"/>
       <c r="B42" s="16" t="s">
         <v>171</v>
@@ -18391,7 +18406,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="38"/>
       <c r="B43" s="16" t="s">
         <v>316</v>
@@ -18403,7 +18418,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="38"/>
       <c r="B44" s="15" t="s">
         <v>344</v>
@@ -18415,7 +18430,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="38"/>
       <c r="B45" s="15" t="s">
         <v>345</v>
@@ -18427,28 +18442,28 @@
         <v>347</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="9"/>
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B47" s="16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B48" s="16" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="16" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="16" t="s">
         <v>265</v>
       </c>
@@ -18478,20 +18493,20 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
+    <col min="5" max="5" width="30.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -18500,7 +18515,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="36" t="s">
         <v>180</v>
       </c>
@@ -18509,7 +18524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>320</v>
       </c>
@@ -18520,7 +18535,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
         <v>182</v>
       </c>
@@ -18531,7 +18546,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="25" t="s">
         <v>184</v>
       </c>
@@ -18542,7 +18557,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>322</v>
       </c>
@@ -18553,7 +18568,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="22" t="s">
         <v>601</v>
       </c>
@@ -18564,7 +18579,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="25" t="s">
         <v>188</v>
       </c>
@@ -18575,7 +18590,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B11" s="22" t="s">
         <v>604</v>
       </c>
@@ -18586,7 +18601,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B12" s="22" t="s">
         <v>605</v>
       </c>
@@ -18597,7 +18612,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B13" s="22" t="s">
         <v>608</v>
       </c>
@@ -18608,12 +18623,12 @@
         <v>610</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="22"/>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="36" t="s">
         <v>611</v>
       </c>
@@ -18622,7 +18637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:5" s="31" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" s="31" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="16" t="s">
         <v>361</v>
       </c>
@@ -18634,7 +18649,7 @@
       </c>
       <c r="E16" s="33"/>
     </row>
-    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B17" s="29" t="s">
         <v>363</v>
       </c>
@@ -18645,7 +18660,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B18" s="16" t="s">
         <v>366</v>
       </c>
@@ -18656,7 +18671,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>621</v>
       </c>
@@ -18664,7 +18679,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B20" s="10" t="s">
         <v>636</v>
       </c>
@@ -18694,19 +18709,19 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -18715,7 +18730,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" s="36" t="s">
         <v>199</v>
       </c>
@@ -18724,7 +18739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
         <v>245</v>
       </c>
@@ -18738,7 +18753,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="38"/>
       <c r="B6" s="13" t="s">
         <v>203</v>
@@ -18750,7 +18765,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="38"/>
       <c r="B7" s="25" t="s">
         <v>206</v>
@@ -18762,7 +18777,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="38"/>
       <c r="B8" s="16" t="s">
         <v>209</v>
@@ -18774,7 +18789,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="38"/>
       <c r="B9" s="16" t="s">
         <v>639</v>
@@ -18786,7 +18801,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="43.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
       <c r="B10" s="10" t="s">
         <v>212</v>
@@ -18798,7 +18813,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="39" t="s">
         <v>176</v>
       </c>
@@ -18812,7 +18827,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="39"/>
       <c r="B12" s="10" t="s">
         <v>236</v>
@@ -18824,7 +18839,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="39"/>
       <c r="B13" s="10" t="s">
         <v>243</v>
@@ -18836,7 +18851,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="39"/>
       <c r="B14" s="25" t="s">
         <v>239</v>
@@ -18848,13 +18863,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="39"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="25"/>
       <c r="B16" s="3" t="s">
         <v>218</v>
@@ -18866,7 +18881,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="38" t="s">
         <v>175</v>
       </c>
@@ -18880,7 +18895,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="38"/>
       <c r="B18" s="13" t="s">
         <v>224</v>
@@ -18892,7 +18907,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="38"/>
       <c r="B19" s="25" t="s">
         <v>227</v>
@@ -18904,7 +18919,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="38"/>
       <c r="B20" s="22" t="s">
         <v>544</v>
@@ -18916,13 +18931,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="38"/>
       <c r="B21" s="25"/>
       <c r="C21" s="6"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B22" s="22" t="s">
         <v>230</v>
       </c>
@@ -18933,7 +18948,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="39" t="s">
         <v>246</v>
       </c>
@@ -18947,7 +18962,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="39"/>
     </row>
   </sheetData>
@@ -18968,23 +18983,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4448F2-11A2-4252-A202-83D6D240A38D}">
   <dimension ref="B1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -18993,7 +19008,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="36" t="s">
         <v>279</v>
       </c>
@@ -19002,7 +19017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>377</v>
       </c>
@@ -19013,7 +19028,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>378</v>
       </c>
@@ -19024,7 +19039,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>282</v>
       </c>
@@ -19035,7 +19050,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
         <v>285</v>
       </c>
@@ -19046,7 +19061,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>288</v>
       </c>
@@ -19057,7 +19072,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B10" s="22" t="s">
         <v>291</v>
       </c>
@@ -19068,7 +19083,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
         <v>294</v>
       </c>
@@ -19079,7 +19094,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="22" t="s">
         <v>297</v>
       </c>
@@ -19090,7 +19105,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B13" s="22" t="s">
         <v>300</v>
       </c>
@@ -19101,7 +19116,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B14" s="9" t="s">
         <v>303</v>
       </c>
@@ -19112,7 +19127,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B15" s="22" t="s">
         <v>305</v>
       </c>
@@ -19123,9 +19138,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B16" s="9" t="s">
-        <v>308</v>
+        <v>642</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>308</v>
@@ -19134,7 +19149,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="22" t="s">
         <v>382</v>
       </c>
@@ -19145,7 +19160,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B18" s="22" t="s">
         <v>406</v>
       </c>
@@ -19156,7 +19171,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="145" x14ac:dyDescent="0.35">
       <c r="B19" s="22" t="s">
         <v>407</v>
       </c>
@@ -19167,7 +19182,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="22" t="s">
         <v>381</v>
       </c>
@@ -19178,7 +19193,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B21" s="25" t="s">
         <v>616</v>
       </c>
@@ -19207,19 +19222,19 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -19228,7 +19243,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="36" t="s">
         <v>86</v>
       </c>
@@ -19237,7 +19252,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="15" t="s">
         <v>247</v>
       </c>
@@ -19248,7 +19263,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
         <v>248</v>
       </c>
@@ -19259,7 +19274,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="15" t="s">
         <v>579</v>
       </c>
@@ -19270,7 +19285,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B8" s="15" t="s">
         <v>581</v>
       </c>
@@ -19281,7 +19296,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B9" s="15" t="s">
         <v>585</v>
       </c>
@@ -19292,7 +19307,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="s">
         <v>588</v>
       </c>
@@ -19303,7 +19318,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="87" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="s">
         <v>312</v>
       </c>
@@ -19314,7 +19329,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="87" x14ac:dyDescent="0.35">
       <c r="B12" s="15" t="s">
         <v>313</v>
       </c>
@@ -19325,7 +19340,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
         <v>590</v>
       </c>
@@ -19336,7 +19351,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">
         <v>591</v>
       </c>
@@ -19347,7 +19362,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
         <v>269</v>
       </c>
@@ -19358,7 +19373,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B16" s="16" t="s">
         <v>270</v>
       </c>
@@ -19369,7 +19384,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B17" s="16" t="s">
         <v>427</v>
       </c>
@@ -19380,7 +19395,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B18" s="16" t="s">
         <v>429</v>
       </c>
@@ -19391,7 +19406,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B19" s="16" t="s">
         <v>432</v>
       </c>
@@ -19402,7 +19417,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="16" t="s">
         <v>434</v>
       </c>
@@ -19413,7 +19428,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="16" t="s">
         <v>439</v>
       </c>
@@ -19424,7 +19439,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B22" s="16" t="s">
         <v>441</v>
       </c>
@@ -19435,7 +19450,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B23" s="16" t="s">
         <v>275</v>
       </c>
@@ -19446,7 +19461,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B24" s="16" t="s">
         <v>277</v>
       </c>
@@ -19457,7 +19472,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B25" s="16" t="s">
         <v>91</v>
       </c>
@@ -19468,7 +19483,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B26" s="16" t="s">
         <v>80</v>
       </c>
@@ -19479,7 +19494,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B27" s="16" t="s">
         <v>83</v>
       </c>
@@ -19490,7 +19505,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B28" s="16" t="s">
         <v>96</v>
       </c>
@@ -19519,19 +19534,19 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -19540,7 +19555,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="36" t="s">
         <v>326</v>
       </c>
@@ -19549,7 +19564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
         <v>327</v>
       </c>
@@ -19560,7 +19575,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B6" s="16" t="s">
         <v>330</v>
       </c>
@@ -19571,7 +19586,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>333</v>
       </c>
@@ -19582,7 +19597,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B8" s="16" t="s">
         <v>336</v>
       </c>
@@ -19593,7 +19608,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>352</v>
       </c>
@@ -19604,7 +19619,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>351</v>
       </c>
@@ -19615,7 +19630,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="22" t="s">
         <v>356</v>
       </c>
@@ -19626,7 +19641,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>340</v>
       </c>
@@ -19635,12 +19650,12 @@
         <v>341</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="36" t="s">
         <v>367</v>
       </c>
@@ -19649,7 +19664,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="22" t="s">
         <v>368</v>
       </c>
@@ -19660,7 +19675,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="87" x14ac:dyDescent="0.35">
       <c r="B17" s="22" t="s">
         <v>371</v>
       </c>
@@ -19671,7 +19686,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
         <v>374</v>
       </c>

--- a/vimMastery.xlsx
+++ b/vimMastery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoyle\github\vimMastery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D5A2B8-B4B3-43EF-A8AE-A0C1F9DA064C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ADC0C5-960A-4E7A-BE6F-E1B7DEA0A2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{2B2C4A5C-E235-4775-ABF4-D4C44A5B2836}"/>
+    <workbookView xWindow="-57765" yWindow="-165" windowWidth="29130" windowHeight="15930" activeTab="3" xr2:uid="{2B2C4A5C-E235-4775-ABF4-D4C44A5B2836}"/>
   </bookViews>
   <sheets>
     <sheet name="quick guide" sheetId="17" r:id="rId1"/>
@@ -17550,18 +17550,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="D3:I6"/>
     <mergeCell ref="B3:C6"/>
     <mergeCell ref="B9:D9"/>
@@ -17574,6 +17562,18 @@
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:G16"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17915,10 +17915,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA205936-45F5-47FC-ABEA-5B92E2F781D2}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18275,210 +18275,252 @@
       <c r="D31" s="8"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="39"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="39"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="39"/>
+      <c r="B35" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="39"/>
-      <c r="B33" s="22" t="s">
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="39"/>
+      <c r="B36" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="38" t="s">
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="39"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="39"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="39"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B41" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D41" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="38"/>
-      <c r="B36" s="22" t="s">
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="38"/>
+      <c r="B42" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D42" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="38"/>
-      <c r="B37" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="38"/>
-      <c r="B38" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="38"/>
-      <c r="B39" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="38"/>
-      <c r="B40" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="38"/>
-      <c r="B41" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="38"/>
-      <c r="B42" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>173</v>
-      </c>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="38"/>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="38"/>
+      <c r="B44" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="38"/>
+      <c r="B45" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="38"/>
+      <c r="B46" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="38"/>
+      <c r="B47" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="38"/>
+      <c r="B48" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="38"/>
+      <c r="B49" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D49" s="14" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="38"/>
-      <c r="B44" s="15" t="s">
+    <row r="50" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="38"/>
+      <c r="B50" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D50" s="14" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="38"/>
-      <c r="B45" s="15" t="s">
+    <row r="51" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="38"/>
+      <c r="B51" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C51" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D51" s="14" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="14"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B47" s="16" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B53" s="16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B48" s="16" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B54" s="16" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="16" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B55" s="16" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="16" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B56" s="16" t="s">
         <v>265</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A35:A45"/>
+    <mergeCell ref="A41:A51"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E12:E15"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A32:A39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18983,7 +19025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4448F2-11A2-4252-A202-83D6D240A38D}">
   <dimension ref="B1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -19218,7 +19260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B20FA1-9286-4E25-8A66-956536221274}">
   <dimension ref="B1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>

--- a/vimMastery.xlsx
+++ b/vimMastery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoyle\github\vimMastery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ADC0C5-960A-4E7A-BE6F-E1B7DEA0A2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEFFE4E-D3C9-43EC-A158-F80F1BAD93E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57765" yWindow="-165" windowWidth="29130" windowHeight="15930" activeTab="3" xr2:uid="{2B2C4A5C-E235-4775-ABF4-D4C44A5B2836}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2B2C4A5C-E235-4775-ABF4-D4C44A5B2836}"/>
   </bookViews>
   <sheets>
     <sheet name="quick guide" sheetId="17" r:id="rId1"/>
@@ -17550,6 +17550,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="D3:I6"/>
     <mergeCell ref="B3:C6"/>
     <mergeCell ref="B9:D9"/>
@@ -17562,18 +17574,6 @@
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:G16"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17917,7 +17917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA205936-45F5-47FC-ABEA-5B92E2F781D2}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>

--- a/vimMastery.xlsx
+++ b/vimMastery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoyle\github\vimMastery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEFFE4E-D3C9-43EC-A158-F80F1BAD93E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7598764C-1137-4D46-9D81-BDBF3F6ADFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2B2C4A5C-E235-4775-ABF4-D4C44A5B2836}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{2B2C4A5C-E235-4775-ABF4-D4C44A5B2836}"/>
   </bookViews>
   <sheets>
     <sheet name="quick guide" sheetId="17" r:id="rId1"/>
@@ -17550,18 +17550,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="D3:I6"/>
     <mergeCell ref="B3:C6"/>
     <mergeCell ref="B9:D9"/>
@@ -17574,6 +17562,18 @@
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:G16"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17917,8 +17917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA205936-45F5-47FC-ABEA-5B92E2F781D2}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/vimMastery.xlsx
+++ b/vimMastery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoyle\github\vimMastery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\vimMastery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7598764C-1137-4D46-9D81-BDBF3F6ADFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134C3EED-69E8-4DB3-9696-B8B3DDDA0AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{2B2C4A5C-E235-4775-ABF4-D4C44A5B2836}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2B2C4A5C-E235-4775-ABF4-D4C44A5B2836}"/>
   </bookViews>
   <sheets>
     <sheet name="quick guide" sheetId="17" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="646">
   <si>
     <t>VIM GENERAL NOTES</t>
   </si>
@@ -15511,6 +15511,103 @@
         <scheme val="minor"/>
       </rPr>
       <t>= change case of letter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">vi +&lt;line number&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= open file with cursor at specific</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> line number</t>
+    </r>
+  </si>
+  <si>
+    <t>vi +16 file.txt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>opens file</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> named 'file.txt' and places </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cursor</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> immediately </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at line 16</t>
     </r>
   </si>
 </sst>
@@ -16042,23 +16139,23 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="28"/>
-    <col min="2" max="2" width="38.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="38.1796875" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.1796875" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.81640625" style="28"/>
+    <col min="1" max="1" width="8.85546875" style="28"/>
+    <col min="2" max="2" width="38.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="2:5" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
         <v>562</v>
       </c>
@@ -16067,7 +16164,7 @@
       </c>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
         <v>553</v>
       </c>
@@ -16077,7 +16174,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
         <v>178</v>
       </c>
@@ -16089,7 +16186,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>538</v>
       </c>
@@ -16099,7 +16196,7 @@
       </c>
       <c r="E5" s="26"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>218</v>
       </c>
@@ -16109,7 +16206,7 @@
       </c>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>539</v>
       </c>
@@ -16121,7 +16218,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>546</v>
       </c>
@@ -16133,7 +16230,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>540</v>
       </c>
@@ -16142,7 +16239,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>333</v>
       </c>
@@ -16152,7 +16249,7 @@
       </c>
       <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>625</v>
       </c>
@@ -16161,7 +16258,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>626</v>
       </c>
@@ -16170,7 +16267,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>571</v>
       </c>
@@ -16182,7 +16279,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
       <c r="D14" s="28" t="s">
@@ -16192,13 +16289,13 @@
         <v>557</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15" s="28" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>548</v>
       </c>
@@ -16207,18 +16304,18 @@
         <v>555</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
       <c r="D17" s="33" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D18" s="33" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D19" s="33" t="s">
         <v>547</v>
       </c>
@@ -16226,15 +16323,15 @@
         <v>563</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D23" s="9" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D24" s="33" t="s">
         <v>641</v>
       </c>
@@ -16242,7 +16339,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D25" s="28" t="s">
         <v>547</v>
       </c>
@@ -16250,22 +16347,22 @@
         <v>559</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D26" s="25" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="28" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="28" t="s">
         <v>565</v>
       </c>
@@ -16288,21 +16385,21 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="28"/>
-    <col min="2" max="2" width="32.54296875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="28.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.54296875" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="28"/>
+    <col min="1" max="1" width="8.85546875" style="28"/>
+    <col min="2" max="2" width="32.5703125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="43.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
         <v>484</v>
       </c>
@@ -16311,7 +16408,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>502</v>
       </c>
@@ -16320,7 +16417,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>499</v>
       </c>
@@ -16331,7 +16428,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="150" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>503</v>
       </c>
@@ -16342,7 +16439,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" ht="180" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>505</v>
       </c>
@@ -16353,7 +16450,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="101.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="101.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
         <v>508</v>
       </c>
@@ -16381,21 +16478,21 @@
       <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="28"/>
+    <col min="1" max="1" width="8.85546875" style="28"/>
     <col min="2" max="2" width="33" style="28" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="46.54296875" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="28"/>
+    <col min="3" max="3" width="27.5703125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="43.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
         <v>484</v>
       </c>
@@ -16404,7 +16501,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>485</v>
       </c>
@@ -16413,7 +16510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>487</v>
       </c>
@@ -16424,7 +16521,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>489</v>
       </c>
@@ -16435,7 +16532,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="165" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
         <v>490</v>
       </c>
@@ -16446,7 +16543,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>498</v>
       </c>
@@ -16475,20 +16572,20 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="46.54296875" customWidth="1"/>
-    <col min="5" max="5" width="43.54296875" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="73.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="73.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -16497,7 +16594,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
         <v>444</v>
       </c>
@@ -16507,7 +16604,7 @@
       </c>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="2:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>445</v>
       </c>
@@ -16521,7 +16618,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>448</v>
       </c>
@@ -16533,7 +16630,7 @@
       </c>
       <c r="E5" s="35"/>
     </row>
-    <row r="6" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>451</v>
       </c>
@@ -16545,7 +16642,7 @@
       </c>
       <c r="E6" s="35"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>454</v>
       </c>
@@ -16557,7 +16654,7 @@
       </c>
       <c r="E7" s="35"/>
     </row>
-    <row r="8" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>457</v>
       </c>
@@ -16569,7 +16666,7 @@
       </c>
       <c r="E8" s="35"/>
     </row>
-    <row r="9" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>460</v>
       </c>
@@ -16581,7 +16678,7 @@
       </c>
       <c r="E9" s="35"/>
     </row>
-    <row r="10" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="31" t="s">
         <v>463</v>
       </c>
@@ -16593,7 +16690,7 @@
       </c>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>466</v>
       </c>
@@ -16605,7 +16702,7 @@
       </c>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>469</v>
       </c>
@@ -16617,7 +16714,7 @@
       </c>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>472</v>
       </c>
@@ -16644,23 +16741,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E241279-B420-43CF-AFF2-B8207B41C2BE}">
   <dimension ref="B1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="46.54296875" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="73.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="73.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -16669,14 +16766,14 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>38</v>
       </c>
@@ -16685,12 +16782,12 @@
       </c>
       <c r="D4" s="35"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="36" t="s">
         <v>355</v>
       </c>
@@ -16699,7 +16796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" ht="210" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>477</v>
       </c>
@@ -16710,7 +16807,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="135" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
         <v>482</v>
       </c>
@@ -16740,19 +16837,19 @@
       <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="46.54296875" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="73.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="73.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -16761,7 +16858,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>410</v>
       </c>
@@ -16770,7 +16867,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>411</v>
       </c>
@@ -16781,7 +16878,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>414</v>
       </c>
@@ -16792,7 +16889,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>417</v>
       </c>
@@ -16803,7 +16900,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>420</v>
       </c>
@@ -16814,7 +16911,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>423</v>
       </c>
@@ -16842,19 +16939,19 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="46.54296875" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -16863,12 +16960,12 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>385</v>
       </c>
@@ -16877,7 +16974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>386</v>
       </c>
@@ -16888,7 +16985,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>389</v>
       </c>
@@ -16899,7 +16996,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>392</v>
       </c>
@@ -16910,7 +17007,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>395</v>
       </c>
@@ -16921,7 +17018,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>398</v>
       </c>
@@ -16932,7 +17029,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
         <v>401</v>
       </c>
@@ -16943,7 +17040,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>628</v>
       </c>
@@ -16954,7 +17051,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C15" s="31"/>
     </row>
   </sheetData>
@@ -16974,19 +17071,19 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="46.54296875" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" s="11" customFormat="1" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" s="11" customFormat="1" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -16995,7 +17092,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>29</v>
       </c>
@@ -17004,7 +17101,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
@@ -17015,7 +17112,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>325</v>
       </c>
@@ -17026,7 +17123,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>318</v>
       </c>
@@ -17034,7 +17131,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>323</v>
       </c>
@@ -17042,7 +17139,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>349</v>
       </c>
@@ -17071,18 +17168,18 @@
       <selection activeCell="U49" sqref="U49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="41" t="s">
         <v>38</v>
       </c>
@@ -17096,7 +17193,7 @@
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
       <c r="D4" s="35"/>
@@ -17106,7 +17203,7 @@
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
       <c r="D5" s="35"/>
@@ -17116,7 +17213,7 @@
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="35"/>
@@ -17126,20 +17223,20 @@
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="9" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="42" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
     </row>
-    <row r="11" spans="2:11" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="35" t="s">
         <v>1</v>
       </c>
@@ -17153,7 +17250,7 @@
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
     </row>
-    <row r="12" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="35" t="s">
         <v>2</v>
       </c>
@@ -17167,7 +17264,7 @@
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
     </row>
-    <row r="13" spans="2:11" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="35" t="s">
         <v>3</v>
       </c>
@@ -17181,7 +17278,7 @@
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="41" t="s">
         <v>4</v>
       </c>
@@ -17195,7 +17292,7 @@
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
     </row>
-    <row r="15" spans="2:11" ht="116.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
         <v>5</v>
       </c>
@@ -17209,7 +17306,7 @@
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
     </row>
-    <row r="16" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="35" t="s">
         <v>622</v>
       </c>
@@ -17225,13 +17322,13 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="42" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="42"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
@@ -17239,7 +17336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
@@ -17247,7 +17344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
@@ -17255,7 +17352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
@@ -17263,7 +17360,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
@@ -17271,7 +17368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
@@ -17279,7 +17376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
@@ -17288,7 +17385,7 @@
       </c>
       <c r="E24" s="41"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
@@ -17296,7 +17393,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
@@ -17304,7 +17401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" s="4" t="s">
         <v>20</v>
       </c>
@@ -17312,7 +17409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
@@ -17320,230 +17417,230 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>512</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>513</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
         <v>514</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
         <v>515</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="41"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="s">
         <v>516</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
         <v>517</v>
       </c>
       <c r="B36" s="41"/>
       <c r="C36" s="41"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
         <v>518</v>
       </c>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
         <v>519</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
         <v>520</v>
       </c>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
         <v>521</v>
       </c>
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>522</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>523</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>524</v>
       </c>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>525</v>
       </c>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>526</v>
       </c>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
         <v>527</v>
       </c>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>528</v>
       </c>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
         <v>529</v>
       </c>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>530</v>
       </c>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>531</v>
       </c>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>532</v>
       </c>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
         <v>533</v>
       </c>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>534</v>
       </c>
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>535</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>536</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>572</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>597</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>537</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>566</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>624</v>
       </c>
@@ -17588,21 +17685,21 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="28"/>
-    <col min="2" max="2" width="31.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.54296875" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="28"/>
+    <col min="1" max="1" width="9.140625" style="28"/>
+    <col min="2" max="2" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
@@ -17611,7 +17708,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>632</v>
       </c>
@@ -17619,7 +17716,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>633</v>
       </c>
@@ -17637,25 +17734,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E75F8B-1EBC-46BC-BDD1-B403CF1BC185}">
-  <dimension ref="B1:D17"/>
+  <dimension ref="B1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="46.54296875" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -17664,7 +17761,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>40</v>
       </c>
@@ -17673,7 +17770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>41</v>
       </c>
@@ -17684,7 +17781,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>44</v>
       </c>
@@ -17695,7 +17792,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>47</v>
       </c>
@@ -17706,7 +17803,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>50</v>
       </c>
@@ -17717,7 +17814,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>53</v>
       </c>
@@ -17728,91 +17825,102 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B11" s="15" t="s">
+    <row r="12" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D12" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B12" s="16" t="s">
+    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D13" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B13" s="16" t="s">
+    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D14" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="16" t="s">
+    <row r="15" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D15" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B15" s="16" t="s">
+    <row r="16" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D16" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="13" t="s">
+    <row r="17" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D17" s="27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B17" s="13" t="s">
+    <row r="18" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D18" s="27" t="s">
         <v>79</v>
       </c>
     </row>
@@ -17833,20 +17941,20 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="46.54296875" customWidth="1"/>
-    <col min="5" max="5" width="48.81640625" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -17855,7 +17963,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>97</v>
       </c>
@@ -17865,7 +17973,7 @@
       </c>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>98</v>
       </c>
@@ -17879,7 +17987,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>102</v>
       </c>
@@ -17891,7 +17999,7 @@
       </c>
       <c r="E6" s="37"/>
     </row>
-    <row r="7" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>105</v>
       </c>
@@ -17917,24 +18025,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA205936-45F5-47FC-ABEA-5B92E2F781D2}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="46.54296875" customWidth="1"/>
-    <col min="5" max="5" width="39.54296875" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -17943,7 +18051,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>108</v>
       </c>
@@ -17953,7 +18061,7 @@
       </c>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>245</v>
       </c>
@@ -17962,7 +18070,7 @@
       <c r="D5" s="19"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="39"/>
       <c r="B6" s="22" t="s">
         <v>130</v>
@@ -17975,7 +18083,7 @@
       </c>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="39"/>
       <c r="B7" s="22" t="s">
         <v>133</v>
@@ -17988,7 +18096,7 @@
       </c>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="39"/>
       <c r="B8" s="22" t="s">
         <v>136</v>
@@ -18001,7 +18109,7 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
       <c r="B9" s="22" t="s">
         <v>139</v>
@@ -18014,18 +18122,18 @@
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="10"/>
       <c r="D11" s="7"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>176</v>
       </c>
@@ -18042,7 +18150,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="22" t="s">
         <v>144</v>
@@ -18055,7 +18163,7 @@
       </c>
       <c r="E13" s="40"/>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="22" t="s">
         <v>147</v>
@@ -18068,7 +18176,7 @@
       </c>
       <c r="E14" s="40"/>
     </row>
-    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="22" t="s">
         <v>150</v>
@@ -18081,7 +18189,7 @@
       </c>
       <c r="E15" s="40"/>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="22" t="s">
         <v>153</v>
@@ -18094,7 +18202,7 @@
       </c>
       <c r="E16" s="20"/>
     </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="22" t="s">
         <v>156</v>
@@ -18107,7 +18215,7 @@
       </c>
       <c r="E17" s="20"/>
     </row>
-    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="22" t="s">
         <v>192</v>
@@ -18120,7 +18228,7 @@
       </c>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="22" t="s">
         <v>193</v>
@@ -18133,7 +18241,7 @@
       </c>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="22" t="s">
         <v>594</v>
@@ -18146,14 +18254,14 @@
       </c>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="10"/>
       <c r="D21" s="8"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
         <v>175</v>
       </c>
@@ -18168,7 +18276,7 @@
       </c>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
       <c r="B23" s="22" t="s">
         <v>261</v>
@@ -18181,7 +18289,7 @@
       </c>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
       <c r="B24" s="22" t="s">
         <v>161</v>
@@ -18194,7 +18302,7 @@
       </c>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25" s="16" t="s">
         <v>164</v>
@@ -18207,7 +18315,7 @@
       </c>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
       <c r="B26" s="16" t="s">
         <v>266</v>
@@ -18220,7 +18328,7 @@
       </c>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
       <c r="B27" s="16" t="s">
         <v>260</v>
@@ -18233,14 +18341,14 @@
       </c>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="10"/>
       <c r="D28" s="8"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="38" t="s">
         <v>258</v>
       </c>
@@ -18255,7 +18363,7 @@
       </c>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="22" t="s">
         <v>253</v>
@@ -18268,14 +18376,14 @@
       </c>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="10"/>
       <c r="D31" s="8"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
         <v>259</v>
       </c>
@@ -18284,21 +18392,21 @@
       <c r="D32" s="8"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="22"/>
       <c r="C33" s="10"/>
       <c r="D33" s="8"/>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="22"/>
       <c r="C34" s="10"/>
       <c r="D34" s="8"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="22" t="s">
         <v>121</v>
@@ -18311,7 +18419,7 @@
       </c>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="22" t="s">
         <v>123</v>
@@ -18324,31 +18432,31 @@
       </c>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="22"/>
       <c r="C37" s="10"/>
       <c r="D37" s="8"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
       <c r="B38" s="22"/>
       <c r="C38" s="10"/>
       <c r="D38" s="8"/>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="22"/>
       <c r="C39" s="10"/>
       <c r="D39" s="8"/>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E40" s="11"/>
     </row>
-    <row r="41" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="s">
         <v>174</v>
       </c>
@@ -18363,7 +18471,7 @@
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
       <c r="B42" s="22" t="s">
         <v>112</v>
@@ -18376,7 +18484,7 @@
       </c>
       <c r="E42" s="11"/>
     </row>
-    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="22" t="s">
         <v>115</v>
@@ -18388,7 +18496,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="9" t="s">
         <v>118</v>
@@ -18400,7 +18508,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="22" t="s">
         <v>125</v>
@@ -18412,7 +18520,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="22" t="s">
         <v>128</v>
@@ -18424,7 +18532,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="22" t="s">
         <v>273</v>
@@ -18436,7 +18544,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="16" t="s">
         <v>171</v>
@@ -18448,7 +18556,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="16" t="s">
         <v>316</v>
@@ -18460,7 +18568,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="15" t="s">
         <v>344</v>
@@ -18472,7 +18580,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="15" t="s">
         <v>345</v>
@@ -18484,28 +18592,28 @@
         <v>347</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="9"/>
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="16" t="s">
         <v>265</v>
       </c>
@@ -18531,24 +18639,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AA42F1-D0EE-4796-8FEB-92CAB37A92AF}">
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="46.54296875" customWidth="1"/>
-    <col min="5" max="5" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -18557,7 +18665,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>180</v>
       </c>
@@ -18566,7 +18674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>320</v>
       </c>
@@ -18577,7 +18685,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>182</v>
       </c>
@@ -18588,7 +18696,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
         <v>184</v>
       </c>
@@ -18599,7 +18707,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>322</v>
       </c>
@@ -18610,7 +18718,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>601</v>
       </c>
@@ -18621,7 +18729,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
         <v>188</v>
       </c>
@@ -18632,7 +18740,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
         <v>604</v>
       </c>
@@ -18643,7 +18751,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>605</v>
       </c>
@@ -18654,7 +18762,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>608</v>
       </c>
@@ -18665,12 +18773,12 @@
         <v>610</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="36" t="s">
         <v>611</v>
       </c>
@@ -18679,7 +18787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:5" s="31" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" s="31" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>361</v>
       </c>
@@ -18691,7 +18799,7 @@
       </c>
       <c r="E16" s="33"/>
     </row>
-    <row r="17" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="29" t="s">
         <v>363</v>
       </c>
@@ -18702,7 +18810,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>366</v>
       </c>
@@ -18713,7 +18821,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>621</v>
       </c>
@@ -18721,7 +18829,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" ht="105" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>636</v>
       </c>
@@ -18751,19 +18859,19 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="46.54296875" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -18772,7 +18880,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>199</v>
       </c>
@@ -18781,7 +18889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>245</v>
       </c>
@@ -18795,7 +18903,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="38"/>
       <c r="B6" s="13" t="s">
         <v>203</v>
@@ -18807,7 +18915,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
       <c r="B7" s="25" t="s">
         <v>206</v>
@@ -18819,7 +18927,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="16" t="s">
         <v>209</v>
@@ -18831,7 +18939,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="16" t="s">
         <v>639</v>
@@ -18843,7 +18951,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="10" t="s">
         <v>212</v>
@@ -18855,7 +18963,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>176</v>
       </c>
@@ -18869,7 +18977,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="10" t="s">
         <v>236</v>
@@ -18881,7 +18989,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="B13" s="10" t="s">
         <v>243</v>
@@ -18893,7 +19001,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="25" t="s">
         <v>239</v>
@@ -18905,13 +19013,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="3" t="s">
         <v>218</v>
@@ -18923,7 +19031,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>175</v>
       </c>
@@ -18937,7 +19045,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="13" t="s">
         <v>224</v>
@@ -18949,7 +19057,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="25" t="s">
         <v>227</v>
@@ -18961,7 +19069,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="22" t="s">
         <v>544</v>
@@ -18973,13 +19081,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="25"/>
       <c r="C21" s="6"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="s">
         <v>230</v>
       </c>
@@ -18990,7 +19098,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>246</v>
       </c>
@@ -19004,7 +19112,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
     </row>
   </sheetData>
@@ -19025,23 +19133,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4448F2-11A2-4252-A202-83D6D240A38D}">
   <dimension ref="B1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="46.54296875" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -19050,7 +19158,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>279</v>
       </c>
@@ -19059,7 +19167,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>377</v>
       </c>
@@ -19070,7 +19178,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>378</v>
       </c>
@@ -19081,7 +19189,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>282</v>
       </c>
@@ -19092,7 +19200,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>285</v>
       </c>
@@ -19103,7 +19211,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>288</v>
       </c>
@@ -19114,7 +19222,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>291</v>
       </c>
@@ -19125,7 +19233,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>294</v>
       </c>
@@ -19136,7 +19244,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>297</v>
       </c>
@@ -19147,7 +19255,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>300</v>
       </c>
@@ -19158,7 +19266,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>303</v>
       </c>
@@ -19169,7 +19277,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>305</v>
       </c>
@@ -19180,7 +19288,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>642</v>
       </c>
@@ -19191,7 +19299,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>382</v>
       </c>
@@ -19202,7 +19310,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" ht="105" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
         <v>406</v>
       </c>
@@ -19213,7 +19321,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" ht="165" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
         <v>407</v>
       </c>
@@ -19224,7 +19332,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>381</v>
       </c>
@@ -19235,7 +19343,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" ht="150" x14ac:dyDescent="0.25">
       <c r="B21" s="25" t="s">
         <v>616</v>
       </c>
@@ -19260,23 +19368,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B20FA1-9286-4E25-8A66-956536221274}">
   <dimension ref="B1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="46.54296875" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -19285,7 +19393,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>86</v>
       </c>
@@ -19294,7 +19402,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>247</v>
       </c>
@@ -19305,7 +19413,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>248</v>
       </c>
@@ -19316,7 +19424,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>579</v>
       </c>
@@ -19327,7 +19435,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>581</v>
       </c>
@@ -19338,7 +19446,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>585</v>
       </c>
@@ -19349,7 +19457,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>588</v>
       </c>
@@ -19360,7 +19468,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>312</v>
       </c>
@@ -19371,7 +19479,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>313</v>
       </c>
@@ -19382,7 +19490,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>590</v>
       </c>
@@ -19393,7 +19501,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>591</v>
       </c>
@@ -19404,7 +19512,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>269</v>
       </c>
@@ -19415,7 +19523,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>270</v>
       </c>
@@ -19426,7 +19534,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>427</v>
       </c>
@@ -19437,7 +19545,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>429</v>
       </c>
@@ -19448,7 +19556,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>432</v>
       </c>
@@ -19459,7 +19567,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>434</v>
       </c>
@@ -19470,7 +19578,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
         <v>439</v>
       </c>
@@ -19481,7 +19589,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" ht="105" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>441</v>
       </c>
@@ -19492,7 +19600,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>275</v>
       </c>
@@ -19503,7 +19611,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>277</v>
       </c>
@@ -19514,7 +19622,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" ht="105" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>91</v>
       </c>
@@ -19525,7 +19633,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>80</v>
       </c>
@@ -19536,7 +19644,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>83</v>
       </c>
@@ -19547,7 +19655,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
         <v>96</v>
       </c>
@@ -19576,19 +19684,19 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="46.54296875" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -19597,7 +19705,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>326</v>
       </c>
@@ -19606,7 +19714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>327</v>
       </c>
@@ -19617,7 +19725,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="105" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>330</v>
       </c>
@@ -19628,7 +19736,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>333</v>
       </c>
@@ -19639,7 +19747,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>336</v>
       </c>
@@ -19650,7 +19758,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>352</v>
       </c>
@@ -19661,7 +19769,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>351</v>
       </c>
@@ -19672,7 +19780,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
         <v>356</v>
       </c>
@@ -19683,7 +19791,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>340</v>
       </c>
@@ -19692,12 +19800,12 @@
         <v>341</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="36" t="s">
         <v>367</v>
       </c>
@@ -19706,7 +19814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>368</v>
       </c>
@@ -19717,7 +19825,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>371</v>
       </c>
@@ -19728,7 +19836,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>374</v>
       </c>

--- a/vimMastery.xlsx
+++ b/vimMastery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\vimMastery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoyle\github\vimMastery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134C3EED-69E8-4DB3-9696-B8B3DDDA0AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F331F1B1-AA33-47D3-ABFC-D38FC4BB3AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2B2C4A5C-E235-4775-ABF4-D4C44A5B2836}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{2B2C4A5C-E235-4775-ABF4-D4C44A5B2836}"/>
   </bookViews>
   <sheets>
     <sheet name="quick guide" sheetId="17" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="649">
   <si>
     <t>VIM GENERAL NOTES</t>
   </si>
@@ -15608,6 +15608,151 @@
         <scheme val="minor"/>
       </rPr>
       <t>at line 16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:!./&lt;scriptName&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = run a script without exiting vim</t>
+    </r>
+  </si>
+  <si>
+    <t>:!./myPythonScript.py</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>runs</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the script '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myPythonScript.py</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' w</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ithout needing to exit vim. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It will bring you temporarily outside vim, and when the script finishes running it will ask you to press 'enter' to return to your vim session.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:!</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = run a shell command
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">./ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= run the script in non-interactive mode; it open a new subshell, executes the script, and returns to the parent shell.</t>
     </r>
   </si>
 </sst>
@@ -15695,7 +15840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -15793,6 +15938,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -16139,42 +16290,42 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="28"/>
-    <col min="2" max="2" width="38.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="28"/>
+    <col min="1" max="1" width="8.81640625" style="28"/>
+    <col min="2" max="2" width="38.453125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="38.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.81640625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="2:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="28" t="s">
         <v>562</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="37" t="s">
         <v>561</v>
       </c>
-      <c r="E2" s="35"/>
-    </row>
-    <row r="3" spans="2:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="38" t="s">
         <v>553</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B4" s="32" t="s">
         <v>178</v>
       </c>
@@ -16186,7 +16337,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>538</v>
       </c>
@@ -16196,7 +16347,7 @@
       </c>
       <c r="E5" s="26"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>218</v>
       </c>
@@ -16206,7 +16357,7 @@
       </c>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>539</v>
       </c>
@@ -16218,7 +16369,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>546</v>
       </c>
@@ -16230,7 +16381,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>540</v>
       </c>
@@ -16239,7 +16390,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>333</v>
       </c>
@@ -16249,7 +16400,7 @@
       </c>
       <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
         <v>625</v>
       </c>
@@ -16258,7 +16409,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="20" t="s">
         <v>626</v>
       </c>
@@ -16267,7 +16418,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>571</v>
       </c>
@@ -16279,7 +16430,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
       <c r="D14" s="28" t="s">
@@ -16289,13 +16440,13 @@
         <v>557</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C15" s="9"/>
       <c r="D15" s="28" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>548</v>
       </c>
@@ -16304,18 +16455,18 @@
         <v>555</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C17" s="3"/>
       <c r="D17" s="33" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D18" s="33" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="D19" s="33" t="s">
         <v>547</v>
       </c>
@@ -16323,15 +16474,15 @@
         <v>563</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C20" s="3"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D23" s="9" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="D24" s="33" t="s">
         <v>641</v>
       </c>
@@ -16339,7 +16490,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="D25" s="28" t="s">
         <v>547</v>
       </c>
@@ -16347,22 +16498,22 @@
         <v>559</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="D26" s="25" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="D27" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="28" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="28" t="s">
         <v>565</v>
       </c>
@@ -16379,45 +16530,45 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2911CE-AFD4-41BA-84F5-7D30275946EE}">
-  <dimension ref="B1:D8"/>
+  <dimension ref="B1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="28"/>
-    <col min="2" max="2" width="32.5703125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="28"/>
+    <col min="1" max="1" width="8.81640625" style="28"/>
+    <col min="2" max="2" width="32.54296875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="43.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="28" t="s">
         <v>484</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>486</v>
       </c>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="D2" s="37"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>499</v>
       </c>
@@ -16428,36 +16579,47 @@
         <v>501</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="2:4" s="36" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="B6" s="35" t="s">
+        <v>646</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="16" t="s">
         <v>503</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+    <row r="8" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="101.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+    <row r="9" spans="2:4" ht="101.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>511</v>
       </c>
     </row>
@@ -16478,39 +16640,39 @@
       <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="28"/>
+    <col min="1" max="1" width="8.81640625" style="28"/>
     <col min="2" max="2" width="33" style="28" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="28"/>
+    <col min="3" max="3" width="27.54296875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="43.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="28" t="s">
         <v>484</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>486</v>
       </c>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="D2" s="37"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="87" x14ac:dyDescent="0.35">
       <c r="B6" s="22" t="s">
         <v>487</v>
       </c>
@@ -16521,7 +16683,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>489</v>
       </c>
@@ -16532,7 +16694,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="145" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
         <v>490</v>
       </c>
@@ -16543,7 +16705,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="87" x14ac:dyDescent="0.35">
       <c r="B9" s="22" t="s">
         <v>498</v>
       </c>
@@ -16572,39 +16734,39 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
-    <col min="5" max="5" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
+    <col min="5" max="5" width="43.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="73.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="73.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>404</v>
       </c>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15" t="s">
         <v>445</v>
       </c>
@@ -16614,11 +16776,11 @@
       <c r="D4" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="37" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B5" s="22" t="s">
         <v>448</v>
       </c>
@@ -16628,9 +16790,9 @@
       <c r="D5" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="E5" s="35"/>
-    </row>
-    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="13" t="s">
         <v>451</v>
       </c>
@@ -16640,9 +16802,9 @@
       <c r="D6" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="E6" s="35"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>454</v>
       </c>
@@ -16652,9 +16814,9 @@
       <c r="D7" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="E7" s="35"/>
-    </row>
-    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E7" s="37"/>
+    </row>
+    <row r="8" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
         <v>457</v>
       </c>
@@ -16664,9 +16826,9 @@
       <c r="D8" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="E8" s="35"/>
-    </row>
-    <row r="9" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
         <v>460</v>
       </c>
@@ -16676,9 +16838,9 @@
       <c r="D9" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="E9" s="35"/>
-    </row>
-    <row r="10" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E9" s="37"/>
+    </row>
+    <row r="10" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="31" t="s">
         <v>463</v>
       </c>
@@ -16690,7 +16852,7 @@
       </c>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B11" s="16" t="s">
         <v>466</v>
       </c>
@@ -16702,7 +16864,7 @@
       </c>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B12" s="16" t="s">
         <v>469</v>
       </c>
@@ -16714,7 +16876,7 @@
       </c>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
         <v>472</v>
       </c>
@@ -16745,58 +16907,58 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="73.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="73.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>404</v>
       </c>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="3" spans="2:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="35"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="37"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="11"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="36" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="203" x14ac:dyDescent="0.35">
       <c r="B7" s="16" t="s">
         <v>477</v>
       </c>
@@ -16807,7 +16969,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B8" s="22" t="s">
         <v>482</v>
       </c>
@@ -16837,37 +16999,37 @@
       <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="73.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="73.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>404</v>
       </c>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="D2" s="37"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B5" s="13" t="s">
         <v>411</v>
       </c>
@@ -16878,7 +17040,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
         <v>414</v>
       </c>
@@ -16889,7 +17051,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
         <v>417</v>
       </c>
@@ -16900,7 +17062,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
         <v>420</v>
       </c>
@@ -16911,7 +17073,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>423</v>
       </c>
@@ -16939,42 +17101,42 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="3" spans="2:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>386</v>
       </c>
@@ -16985,7 +17147,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
         <v>389</v>
       </c>
@@ -16996,7 +17158,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B7" s="16" t="s">
         <v>392</v>
       </c>
@@ -17007,7 +17169,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B8" s="16" t="s">
         <v>395</v>
       </c>
@@ -17018,7 +17180,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="16" t="s">
         <v>398</v>
       </c>
@@ -17029,7 +17191,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="25" t="s">
         <v>401</v>
       </c>
@@ -17040,7 +17202,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="16" t="s">
         <v>628</v>
       </c>
@@ -17051,7 +17213,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C15" s="31"/>
     </row>
   </sheetData>
@@ -17071,37 +17233,37 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" s="11" customFormat="1" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" s="11" customFormat="1" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="D2" s="37"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
@@ -17112,7 +17274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>325</v>
       </c>
@@ -17123,7 +17285,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>318</v>
       </c>
@@ -17131,7 +17293,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>323</v>
       </c>
@@ -17139,7 +17301,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>349</v>
       </c>
@@ -17168,167 +17330,167 @@
       <selection activeCell="U49" sqref="U49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+    <row r="3" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="9" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
+    <row r="9" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-    </row>
-    <row r="11" spans="2:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+    </row>
+    <row r="11" spans="2:11" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-    </row>
-    <row r="12" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+    </row>
+    <row r="12" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-    </row>
-    <row r="13" spans="2:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+    </row>
+    <row r="13" spans="2:11" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="41" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-    </row>
-    <row r="15" spans="2:11" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="35" t="s">
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+    </row>
+    <row r="15" spans="2:11" ht="116.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-    </row>
-    <row r="16" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="35" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+    </row>
+    <row r="16" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="37" t="s">
         <v>622</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37" t="s">
         <v>623</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="42" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="42"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="44"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
@@ -17336,7 +17498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
@@ -17344,7 +17506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
@@ -17352,7 +17514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
@@ -17360,7 +17522,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
@@ -17368,7 +17530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
@@ -17376,16 +17538,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="41"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="43"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
@@ -17393,7 +17555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
@@ -17401,7 +17563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C27" s="4" t="s">
         <v>20</v>
       </c>
@@ -17409,7 +17571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
@@ -17417,236 +17579,248 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="43" t="s">
         <v>512</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="43" t="s">
         <v>513</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="43" t="s">
         <v>515</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="43" t="s">
         <v>516</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="43" t="s">
         <v>517</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="41" t="s">
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="43" t="s">
         <v>518</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="43" t="s">
         <v>519</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="37" t="s">
         <v>520</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="37" t="s">
         <v>521</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="s">
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="43" t="s">
         <v>522</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="41" t="s">
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="43" t="s">
         <v>523</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="28" t="s">
         <v>524</v>
       </c>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="28" t="s">
         <v>525</v>
       </c>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="28" t="s">
         <v>526</v>
       </c>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="28" t="s">
         <v>527</v>
       </c>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="28" t="s">
         <v>528</v>
       </c>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="28" t="s">
         <v>529</v>
       </c>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="28" t="s">
         <v>530</v>
       </c>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="28" t="s">
         <v>531</v>
       </c>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="28" t="s">
         <v>532</v>
       </c>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="28" t="s">
         <v>533</v>
       </c>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="28" t="s">
         <v>534</v>
       </c>
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>535</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>536</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>572</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>597</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>537</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>566</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>624</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="D3:I6"/>
     <mergeCell ref="B3:C6"/>
     <mergeCell ref="B9:D9"/>
@@ -17659,18 +17833,6 @@
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:G16"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17685,30 +17847,30 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="28"/>
-    <col min="2" max="2" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="1" width="9.1796875" style="28"/>
+    <col min="2" max="2" width="31.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2" s="37"/>
+    </row>
+    <row r="4" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>632</v>
       </c>
@@ -17716,7 +17878,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>633</v>
       </c>
@@ -17736,41 +17898,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E75F8B-1EBC-46BC-BDD1-B403CF1BC185}">
   <dimension ref="B1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="D2" s="37"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
         <v>41</v>
       </c>
@@ -17781,7 +17943,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="13" t="s">
         <v>44</v>
       </c>
@@ -17792,7 +17954,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
         <v>47</v>
       </c>
@@ -17803,7 +17965,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
         <v>50</v>
       </c>
@@ -17814,7 +17976,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B9" s="15" t="s">
         <v>53</v>
       </c>
@@ -17825,7 +17987,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="s">
         <v>643</v>
       </c>
@@ -17836,7 +17998,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="s">
         <v>56</v>
       </c>
@@ -17847,7 +18009,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B12" s="15" t="s">
         <v>59</v>
       </c>
@@ -17858,7 +18020,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
         <v>62</v>
       </c>
@@ -17869,7 +18031,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">
         <v>65</v>
       </c>
@@ -17880,7 +18042,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -17891,7 +18053,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B16" s="16" t="s">
         <v>71</v>
       </c>
@@ -17902,7 +18064,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
         <v>74</v>
       </c>
@@ -17913,7 +18075,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B18" s="13" t="s">
         <v>77</v>
       </c>
@@ -17941,39 +18103,39 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
+    <col min="5" max="5" width="48.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="D2" s="37"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
         <v>98</v>
       </c>
@@ -17983,11 +18145,11 @@
       <c r="D5" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="13" t="s">
         <v>102</v>
       </c>
@@ -17997,9 +18159,9 @@
       <c r="D6" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="37"/>
-    </row>
-    <row r="7" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E6" s="39"/>
+    </row>
+    <row r="7" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="16" t="s">
         <v>105</v>
       </c>
@@ -18009,7 +18171,7 @@
       <c r="D7" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="37"/>
+      <c r="E7" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -18029,40 +18191,40 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
+    <col min="5" max="5" width="39.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="D2" s="37"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="41" t="s">
         <v>245</v>
       </c>
       <c r="B5" s="16"/>
@@ -18070,8 +18232,8 @@
       <c r="D5" s="19"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="41"/>
       <c r="B6" s="22" t="s">
         <v>130</v>
       </c>
@@ -18083,8 +18245,8 @@
       </c>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="41"/>
       <c r="B7" s="22" t="s">
         <v>133</v>
       </c>
@@ -18096,8 +18258,8 @@
       </c>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="41"/>
       <c r="B8" s="22" t="s">
         <v>136</v>
       </c>
@@ -18109,8 +18271,8 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="41"/>
       <c r="B9" s="22" t="s">
         <v>139</v>
       </c>
@@ -18122,19 +18284,19 @@
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="41"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="10"/>
       <c r="D11" s="7"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="40" t="s">
         <v>176</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -18146,12 +18308,12 @@
       <c r="D12" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="42" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="40"/>
       <c r="B13" s="22" t="s">
         <v>144</v>
       </c>
@@ -18161,10 +18323,10 @@
       <c r="D13" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="40"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="40"/>
       <c r="B14" s="22" t="s">
         <v>147</v>
       </c>
@@ -18174,10 +18336,10 @@
       <c r="D14" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E14" s="40"/>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="40"/>
       <c r="B15" s="22" t="s">
         <v>150</v>
       </c>
@@ -18187,10 +18349,10 @@
       <c r="D15" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="40"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="E15" s="42"/>
+    </row>
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="40"/>
       <c r="B16" s="22" t="s">
         <v>153</v>
       </c>
@@ -18202,8 +18364,8 @@
       </c>
       <c r="E16" s="20"/>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="40"/>
       <c r="B17" s="22" t="s">
         <v>156</v>
       </c>
@@ -18215,8 +18377,8 @@
       </c>
       <c r="E17" s="20"/>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="40"/>
       <c r="B18" s="22" t="s">
         <v>192</v>
       </c>
@@ -18228,8 +18390,8 @@
       </c>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+    <row r="19" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="40"/>
       <c r="B19" s="22" t="s">
         <v>193</v>
       </c>
@@ -18241,8 +18403,8 @@
       </c>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+    <row r="20" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="40"/>
       <c r="B20" s="22" t="s">
         <v>594</v>
       </c>
@@ -18254,15 +18416,15 @@
       </c>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="10"/>
       <c r="D21" s="8"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="41" t="s">
         <v>175</v>
       </c>
       <c r="B22" s="23" t="s">
@@ -18276,8 +18438,8 @@
       </c>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+    <row r="23" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="41"/>
       <c r="B23" s="22" t="s">
         <v>261</v>
       </c>
@@ -18289,8 +18451,8 @@
       </c>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+    <row r="24" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="41"/>
       <c r="B24" s="22" t="s">
         <v>161</v>
       </c>
@@ -18302,8 +18464,8 @@
       </c>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+    <row r="25" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="41"/>
       <c r="B25" s="16" t="s">
         <v>164</v>
       </c>
@@ -18315,8 +18477,8 @@
       </c>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+    <row r="26" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="41"/>
       <c r="B26" s="16" t="s">
         <v>266</v>
       </c>
@@ -18328,8 +18490,8 @@
       </c>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+    <row r="27" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="41"/>
       <c r="B27" s="16" t="s">
         <v>260</v>
       </c>
@@ -18341,15 +18503,15 @@
       </c>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="10"/>
       <c r="D28" s="8"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+    <row r="29" spans="1:5" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="40" t="s">
         <v>258</v>
       </c>
       <c r="B29" s="22" t="s">
@@ -18363,8 +18525,8 @@
       </c>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+    <row r="30" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A30" s="40"/>
       <c r="B30" s="22" t="s">
         <v>253</v>
       </c>
@@ -18376,15 +18538,15 @@
       </c>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="10"/>
       <c r="D31" s="8"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="41" t="s">
         <v>259</v>
       </c>
       <c r="B32" s="22"/>
@@ -18392,22 +18554,22 @@
       <c r="D32" s="8"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+    <row r="33" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="41"/>
       <c r="B33" s="22"/>
       <c r="C33" s="10"/>
       <c r="D33" s="8"/>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+    <row r="34" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="41"/>
       <c r="B34" s="22"/>
       <c r="C34" s="10"/>
       <c r="D34" s="8"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+    <row r="35" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="41"/>
       <c r="B35" s="22" t="s">
         <v>121</v>
       </c>
@@ -18419,8 +18581,8 @@
       </c>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="41"/>
       <c r="B36" s="22" t="s">
         <v>123</v>
       </c>
@@ -18432,32 +18594,32 @@
       </c>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="41"/>
       <c r="B37" s="22"/>
       <c r="C37" s="10"/>
       <c r="D37" s="8"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="41"/>
       <c r="B38" s="22"/>
       <c r="C38" s="10"/>
       <c r="D38" s="8"/>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="41"/>
       <c r="B39" s="22"/>
       <c r="C39" s="10"/>
       <c r="D39" s="8"/>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E40" s="11"/>
     </row>
-    <row r="41" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
+    <row r="41" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="40" t="s">
         <v>174</v>
       </c>
       <c r="B41" s="22" t="s">
@@ -18471,8 +18633,8 @@
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="40"/>
       <c r="B42" s="22" t="s">
         <v>112</v>
       </c>
@@ -18484,8 +18646,8 @@
       </c>
       <c r="E42" s="11"/>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
+    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="40"/>
       <c r="B43" s="22" t="s">
         <v>115</v>
       </c>
@@ -18496,8 +18658,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
+    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="40"/>
       <c r="B44" s="9" t="s">
         <v>118</v>
       </c>
@@ -18508,8 +18670,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="40"/>
       <c r="B45" s="22" t="s">
         <v>125</v>
       </c>
@@ -18520,8 +18682,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
+    <row r="46" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="40"/>
       <c r="B46" s="22" t="s">
         <v>128</v>
       </c>
@@ -18532,8 +18694,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
+    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="40"/>
       <c r="B47" s="22" t="s">
         <v>273</v>
       </c>
@@ -18544,8 +18706,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="40"/>
       <c r="B48" s="16" t="s">
         <v>171</v>
       </c>
@@ -18556,8 +18718,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
+    <row r="49" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="40"/>
       <c r="B49" s="16" t="s">
         <v>316</v>
       </c>
@@ -18568,8 +18730,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
+    <row r="50" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="40"/>
       <c r="B50" s="15" t="s">
         <v>344</v>
       </c>
@@ -18580,8 +18742,8 @@
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
+    <row r="51" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="40"/>
       <c r="B51" s="15" t="s">
         <v>345</v>
       </c>
@@ -18592,28 +18754,28 @@
         <v>347</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="9"/>
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B53" s="16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B54" s="16" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B55" s="16" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B56" s="16" t="s">
         <v>265</v>
       </c>
@@ -18643,38 +18805,38 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
+    <col min="5" max="5" width="30.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="D2" s="37"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>320</v>
       </c>
@@ -18685,7 +18847,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
         <v>182</v>
       </c>
@@ -18696,7 +18858,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="25" t="s">
         <v>184</v>
       </c>
@@ -18707,7 +18869,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>322</v>
       </c>
@@ -18718,7 +18880,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="22" t="s">
         <v>601</v>
       </c>
@@ -18729,7 +18891,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="25" t="s">
         <v>188</v>
       </c>
@@ -18740,7 +18902,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B11" s="22" t="s">
         <v>604</v>
       </c>
@@ -18751,7 +18913,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B12" s="22" t="s">
         <v>605</v>
       </c>
@@ -18762,7 +18924,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B13" s="22" t="s">
         <v>608</v>
       </c>
@@ -18773,21 +18935,21 @@
         <v>610</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="22"/>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="38" t="s">
         <v>611</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:5" s="31" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" s="31" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="16" t="s">
         <v>361</v>
       </c>
@@ -18799,7 +18961,7 @@
       </c>
       <c r="E16" s="33"/>
     </row>
-    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B17" s="29" t="s">
         <v>363</v>
       </c>
@@ -18810,7 +18972,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B18" s="16" t="s">
         <v>366</v>
       </c>
@@ -18821,7 +18983,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>621</v>
       </c>
@@ -18829,7 +18991,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B20" s="10" t="s">
         <v>636</v>
       </c>
@@ -18859,38 +19021,38 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="D2" s="37"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:4" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="40" t="s">
         <v>245</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -18903,8 +19065,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="40"/>
       <c r="B6" s="13" t="s">
         <v>203</v>
       </c>
@@ -18915,8 +19077,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="40"/>
       <c r="B7" s="25" t="s">
         <v>206</v>
       </c>
@@ -18927,8 +19089,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+    <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="40"/>
       <c r="B8" s="16" t="s">
         <v>209</v>
       </c>
@@ -18939,8 +19101,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+    <row r="9" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="40"/>
       <c r="B9" s="16" t="s">
         <v>639</v>
       </c>
@@ -18951,7 +19113,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="43.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
       <c r="B10" s="10" t="s">
         <v>212</v>
@@ -18963,8 +19125,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="41" t="s">
         <v>176</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -18977,8 +19139,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="41"/>
       <c r="B12" s="10" t="s">
         <v>236</v>
       </c>
@@ -18989,8 +19151,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="41"/>
       <c r="B13" s="10" t="s">
         <v>243</v>
       </c>
@@ -19001,8 +19163,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="41"/>
       <c r="B14" s="25" t="s">
         <v>239</v>
       </c>
@@ -19013,13 +19175,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="41"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="25"/>
       <c r="B16" s="3" t="s">
         <v>218</v>
@@ -19031,8 +19193,8 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="40" t="s">
         <v>175</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -19045,8 +19207,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="40"/>
       <c r="B18" s="13" t="s">
         <v>224</v>
       </c>
@@ -19057,8 +19219,8 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="40"/>
       <c r="B19" s="25" t="s">
         <v>227</v>
       </c>
@@ -19069,8 +19231,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+    <row r="20" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="40"/>
       <c r="B20" s="22" t="s">
         <v>544</v>
       </c>
@@ -19081,13 +19243,13 @@
         <v>545</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="40"/>
       <c r="B21" s="25"/>
       <c r="C21" s="6"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B22" s="22" t="s">
         <v>230</v>
       </c>
@@ -19098,8 +19260,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+    <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="41" t="s">
         <v>246</v>
       </c>
       <c r="B23" s="22" t="s">
@@ -19112,8 +19274,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -19137,37 +19299,37 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>404</v>
       </c>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="D2" s="37"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>377</v>
       </c>
@@ -19178,7 +19340,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>378</v>
       </c>
@@ -19189,7 +19351,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>282</v>
       </c>
@@ -19200,7 +19362,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
         <v>285</v>
       </c>
@@ -19211,7 +19373,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>288</v>
       </c>
@@ -19222,7 +19384,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B10" s="22" t="s">
         <v>291</v>
       </c>
@@ -19233,7 +19395,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
         <v>294</v>
       </c>
@@ -19244,7 +19406,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="22" t="s">
         <v>297</v>
       </c>
@@ -19255,7 +19417,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B13" s="22" t="s">
         <v>300</v>
       </c>
@@ -19266,7 +19428,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B14" s="9" t="s">
         <v>303</v>
       </c>
@@ -19277,7 +19439,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B15" s="22" t="s">
         <v>305</v>
       </c>
@@ -19288,7 +19450,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B16" s="9" t="s">
         <v>642</v>
       </c>
@@ -19299,7 +19461,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="22" t="s">
         <v>382</v>
       </c>
@@ -19310,7 +19472,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B18" s="22" t="s">
         <v>406</v>
       </c>
@@ -19321,7 +19483,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="145" x14ac:dyDescent="0.35">
       <c r="B19" s="22" t="s">
         <v>407</v>
       </c>
@@ -19332,7 +19494,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="22" t="s">
         <v>381</v>
       </c>
@@ -19343,7 +19505,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B21" s="25" t="s">
         <v>616</v>
       </c>
@@ -19372,37 +19534,37 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>404</v>
       </c>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="D2" s="37"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="15" t="s">
         <v>247</v>
       </c>
@@ -19413,7 +19575,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
         <v>248</v>
       </c>
@@ -19424,7 +19586,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="15" t="s">
         <v>579</v>
       </c>
@@ -19435,7 +19597,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B8" s="15" t="s">
         <v>581</v>
       </c>
@@ -19446,7 +19608,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B9" s="15" t="s">
         <v>585</v>
       </c>
@@ -19457,7 +19619,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="s">
         <v>588</v>
       </c>
@@ -19468,7 +19630,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="87" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="s">
         <v>312</v>
       </c>
@@ -19479,7 +19641,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="87" x14ac:dyDescent="0.35">
       <c r="B12" s="15" t="s">
         <v>313</v>
       </c>
@@ -19490,7 +19652,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
         <v>590</v>
       </c>
@@ -19501,7 +19663,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">
         <v>591</v>
       </c>
@@ -19512,7 +19674,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
         <v>269</v>
       </c>
@@ -19523,7 +19685,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B16" s="16" t="s">
         <v>270</v>
       </c>
@@ -19534,7 +19696,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B17" s="16" t="s">
         <v>427</v>
       </c>
@@ -19545,7 +19707,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B18" s="16" t="s">
         <v>429</v>
       </c>
@@ -19556,7 +19718,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B19" s="16" t="s">
         <v>432</v>
       </c>
@@ -19567,7 +19729,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="16" t="s">
         <v>434</v>
       </c>
@@ -19578,7 +19740,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="16" t="s">
         <v>439</v>
       </c>
@@ -19589,7 +19751,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B22" s="16" t="s">
         <v>441</v>
       </c>
@@ -19600,7 +19762,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B23" s="16" t="s">
         <v>275</v>
       </c>
@@ -19611,7 +19773,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B24" s="16" t="s">
         <v>277</v>
       </c>
@@ -19622,7 +19784,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B25" s="16" t="s">
         <v>91</v>
       </c>
@@ -19633,7 +19795,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B26" s="16" t="s">
         <v>80</v>
       </c>
@@ -19644,7 +19806,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B27" s="16" t="s">
         <v>83</v>
       </c>
@@ -19655,7 +19817,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B28" s="16" t="s">
         <v>96</v>
       </c>
@@ -19684,37 +19846,37 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="D2" s="37"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
         <v>327</v>
       </c>
@@ -19725,7 +19887,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B6" s="16" t="s">
         <v>330</v>
       </c>
@@ -19736,7 +19898,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>333</v>
       </c>
@@ -19747,7 +19909,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B8" s="16" t="s">
         <v>336</v>
       </c>
@@ -19758,7 +19920,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>352</v>
       </c>
@@ -19769,7 +19931,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>351</v>
       </c>
@@ -19780,7 +19942,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="22" t="s">
         <v>356</v>
       </c>
@@ -19791,7 +19953,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>340</v>
       </c>
@@ -19800,21 +19962,21 @@
         <v>341</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="38" t="s">
         <v>367</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="22" t="s">
         <v>368</v>
       </c>
@@ -19825,7 +19987,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="87" x14ac:dyDescent="0.35">
       <c r="B17" s="22" t="s">
         <v>371</v>
       </c>
@@ -19836,7 +19998,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
         <v>374</v>
       </c>
